--- a/仕様書/エレメンタル_仕様書_アニメーション.xlsx
+++ b/仕様書/エレメンタル_仕様書_アニメーション.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="22935" windowHeight="9795"/>
+    <workbookView windowWidth="22440" windowHeight="9795"/>
   </bookViews>
   <sheets>
     <sheet name="アニメーション仕様" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200">
   <si>
     <t>オブジェクト･アニメーション仕様</t>
   </si>
@@ -43,6 +43,12 @@
   </si>
   <si>
     <t>サイズ（横*縦）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">画像の大きさ(横) </t>
+  </si>
+  <si>
+    <t>画像の大きさ(縦)</t>
   </si>
   <si>
     <t>位置</t>
@@ -620,9 +626,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -648,6 +654,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -662,31 +682,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -700,8 +727,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -717,82 +791,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -814,49 +820,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -868,43 +850,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -922,7 +892,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -934,19 +904,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -958,43 +982,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1178,35 +1184,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1226,12 +1210,34 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1255,8 +1261,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1265,152 +1271,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1435,6 +1441,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1444,13 +1453,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1465,28 +1474,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1833,12 +1830,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="B2:Q66"/>
+  <dimension ref="B2:S66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="Q26" sqref="Q26"/>
+      <selection pane="bottomLeft" activeCell="J46" sqref="J46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1848,16 +1845,18 @@
     <col min="3" max="4" width="11.2166666666667" style="3" customWidth="1"/>
     <col min="5" max="5" width="15.6666666666667" style="3" customWidth="1"/>
     <col min="6" max="6" width="7.10833333333333" style="3" customWidth="1"/>
-    <col min="7" max="8" width="15.6666666666667" style="3" customWidth="1"/>
-    <col min="9" max="9" width="5.21666666666667" style="3" customWidth="1"/>
-    <col min="10" max="10" width="10.4416666666667" style="3" customWidth="1"/>
-    <col min="11" max="11" width="11.3333333333333" style="3" customWidth="1"/>
-    <col min="12" max="12" width="12.25" style="3" customWidth="1"/>
-    <col min="13" max="13" width="11.2166666666667" style="3" customWidth="1"/>
-    <col min="14" max="15" width="11.6666666666667" style="3" customWidth="1"/>
-    <col min="16" max="16" width="54.2166666666667" style="3" customWidth="1"/>
-    <col min="17" max="17" width="67.2166666666667" style="3" customWidth="1"/>
-    <col min="18" max="16384" width="9" style="3"/>
+    <col min="7" max="7" width="13.625" style="3" customWidth="1"/>
+    <col min="8" max="9" width="16.25" style="3" customWidth="1"/>
+    <col min="10" max="10" width="9.875" style="3" customWidth="1"/>
+    <col min="11" max="11" width="5.125" style="3" customWidth="1"/>
+    <col min="12" max="12" width="10.4416666666667" style="3" customWidth="1"/>
+    <col min="13" max="13" width="11.3333333333333" style="3" customWidth="1"/>
+    <col min="14" max="14" width="12.25" style="3" customWidth="1"/>
+    <col min="15" max="15" width="11.2166666666667" style="3" customWidth="1"/>
+    <col min="16" max="17" width="11.6666666666667" style="3" customWidth="1"/>
+    <col min="18" max="18" width="54.2166666666667" style="3" customWidth="1"/>
+    <col min="19" max="19" width="67.2166666666667" style="3" customWidth="1"/>
+    <col min="20" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.25" spans="2:6">
@@ -1870,7 +1869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:17">
+    <row r="4" spans="2:19">
       <c r="B4" s="6" t="s">
         <v>2</v>
       </c>
@@ -1914,266 +1913,317 @@
         <v>15</v>
       </c>
       <c r="P4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="R4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="Q4" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="2:17">
+      <c r="S4" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="2:19">
       <c r="B5" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F5" s="7">
         <v>5</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" s="7">
+        <v>23</v>
+      </c>
+      <c r="H5" s="8">
+        <v>256</v>
+      </c>
+      <c r="I5" s="8">
+        <v>128</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="7">
         <v>2</v>
       </c>
-      <c r="J5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
+      <c r="L5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>26</v>
+      </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7"/>
-      <c r="P5" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q5" s="17"/>
-    </row>
-    <row r="6" spans="2:17">
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="S5" s="18"/>
+    </row>
+    <row r="6" spans="2:19">
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
-      <c r="D6" s="8"/>
+      <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7">
         <v>5</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I6" s="7">
+        <v>23</v>
+      </c>
+      <c r="H6" s="8">
+        <v>256</v>
+      </c>
+      <c r="I6" s="8">
+        <v>128</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" s="7">
         <v>2</v>
       </c>
-      <c r="J6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
+      <c r="L6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>26</v>
+      </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
-      <c r="P6" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q6" s="17"/>
-    </row>
-    <row r="7" spans="2:17">
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="S6" s="18"/>
+    </row>
+    <row r="7" spans="2:19">
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
-      <c r="D7" s="8"/>
+      <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F7" s="7">
         <v>4</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I7" s="7">
+        <v>23</v>
+      </c>
+      <c r="H7" s="8">
+        <v>256</v>
+      </c>
+      <c r="I7" s="8">
+        <v>128</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7" s="7">
         <v>2</v>
       </c>
-      <c r="J7" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
+      <c r="L7" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>26</v>
+      </c>
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
-      <c r="P7" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q7" s="17"/>
-    </row>
-    <row r="8" spans="2:17">
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="S7" s="18"/>
+    </row>
+    <row r="8" spans="2:19">
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
-      <c r="D8" s="8"/>
+      <c r="D8" s="7"/>
       <c r="E8" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F8" s="7">
         <v>3</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I8" s="7">
+        <v>23</v>
+      </c>
+      <c r="H8" s="7">
+        <v>128</v>
+      </c>
+      <c r="I8" s="8">
+        <v>128</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" s="7">
         <v>1</v>
       </c>
-      <c r="J8" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K8" s="7"/>
-      <c r="L8" s="20"/>
+      <c r="L8" s="7" t="s">
+        <v>32</v>
+      </c>
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
       <c r="P8" s="7"/>
-      <c r="Q8" s="22"/>
-    </row>
-    <row r="9" spans="2:17">
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="21"/>
+    </row>
+    <row r="9" spans="2:19">
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
-      <c r="D9" s="8"/>
+      <c r="D9" s="7"/>
       <c r="E9" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F9" s="7">
         <v>4</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I9" s="7">
+        <v>23</v>
+      </c>
+      <c r="H9" s="9">
+        <v>128</v>
+      </c>
+      <c r="I9" s="8">
+        <v>128</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K9" s="7">
         <v>1</v>
       </c>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
-      <c r="P9" s="14"/>
+      <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
-    </row>
-    <row r="10" spans="2:17">
+      <c r="R9" s="15"/>
+      <c r="S9" s="7"/>
+    </row>
+    <row r="10" spans="2:19">
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
-      <c r="D10" s="8"/>
+      <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F10" s="7">
         <v>3</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I10" s="7">
+        <v>23</v>
+      </c>
+      <c r="H10" s="7">
+        <f>SUM(128,128,128)</f>
+        <v>384</v>
+      </c>
+      <c r="I10" s="8">
+        <v>128</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K10" s="7">
         <v>3</v>
       </c>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
       <c r="P10" s="7"/>
-      <c r="Q10" s="23"/>
-    </row>
-    <row r="11" spans="2:17">
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="22"/>
+    </row>
+    <row r="11" spans="2:19">
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
-      <c r="D11" s="8"/>
+      <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F11" s="7">
         <v>5</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I11" s="7">
-        <v>4</v>
+        <v>23</v>
+      </c>
+      <c r="H11" s="7">
+        <f>SUM(128,128,128)</f>
+        <v>384</v>
+      </c>
+      <c r="I11" s="8">
+        <v>128</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>34</v>
+        <v>24</v>
+      </c>
+      <c r="K11" s="7">
+        <v>3</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
+        <v>36</v>
+      </c>
+      <c r="M11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="N11" s="7" t="s">
+        <v>36</v>
+      </c>
       <c r="O11" s="7"/>
-      <c r="P11" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q11" s="17"/>
-    </row>
-    <row r="12" spans="2:17">
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="S11" s="18"/>
+    </row>
+    <row r="12" spans="2:19">
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
-      <c r="D12" s="8"/>
+      <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F12" s="7">
         <v>5</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I12" s="7">
+        <v>23</v>
+      </c>
+      <c r="H12" s="7">
+        <f>SUM(128,128,128,128)</f>
+        <v>512</v>
+      </c>
+      <c r="I12" s="8">
+        <v>128</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K12" s="7">
         <v>4</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>38</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>39</v>
@@ -2181,37 +2231,44 @@
       <c r="M12" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
+      <c r="N12" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="P12" s="7"/>
-      <c r="Q12" s="17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="2:17">
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="2:19">
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
-      <c r="D13" s="8"/>
+      <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F13" s="7">
         <v>2</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I13" s="7">
+        <v>23</v>
+      </c>
+      <c r="H13" s="7">
+        <f>SUM(128,128,128,128)</f>
+        <v>512</v>
+      </c>
+      <c r="I13" s="8">
+        <v>128</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K13" s="7">
         <v>4</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>38</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>39</v>
@@ -2219,37 +2276,44 @@
       <c r="M13" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
+      <c r="N13" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="P13" s="7"/>
-      <c r="Q13" s="17" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="2:17">
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="2:19">
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
-      <c r="D14" s="8"/>
+      <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F14" s="7">
         <v>2</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I14" s="7">
+        <v>23</v>
+      </c>
+      <c r="H14" s="7">
+        <f>SUM(128,128,128,128)</f>
+        <v>512</v>
+      </c>
+      <c r="I14" s="8">
+        <v>128</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K14" s="7">
         <v>4</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>38</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>39</v>
@@ -2257,69 +2321,81 @@
       <c r="M14" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
+      <c r="N14" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="P14" s="7"/>
-      <c r="Q14" s="17" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="2:17">
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="2:19">
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
-      <c r="D15" s="8"/>
+      <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F15" s="7">
         <v>4</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I15" s="7">
+        <v>23</v>
+      </c>
+      <c r="H15" s="7">
+        <v>256</v>
+      </c>
+      <c r="I15" s="8">
+        <v>128</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K15" s="7">
         <v>2</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
+      <c r="L15" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="M15" s="7" t="s">
+        <v>49</v>
+      </c>
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
       <c r="P15" s="7"/>
-      <c r="Q15" s="17"/>
-    </row>
-    <row r="16" spans="2:17">
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="18"/>
+    </row>
+    <row r="16" spans="2:19">
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
-      <c r="D16" s="8"/>
+      <c r="D16" s="7"/>
       <c r="E16" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F16" s="7">
         <v>1</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I16" s="7">
+        <v>23</v>
+      </c>
+      <c r="H16" s="7">
+        <v>512</v>
+      </c>
+      <c r="I16" s="8">
+        <v>128</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K16" s="7">
         <v>4</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>50</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>51</v>
@@ -2327,113 +2403,134 @@
       <c r="M16" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
+      <c r="N16" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>54</v>
+      </c>
       <c r="P16" s="7"/>
-      <c r="Q16" s="17"/>
-    </row>
-    <row r="17" spans="2:17">
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="18"/>
+    </row>
+    <row r="17" spans="2:19">
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
-      <c r="D17" s="8"/>
+      <c r="D17" s="7"/>
       <c r="E17" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F17" s="7">
         <v>1</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I17" s="7">
+        <v>23</v>
+      </c>
+      <c r="H17" s="7">
+        <v>256</v>
+      </c>
+      <c r="I17" s="8">
+        <v>128</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K17" s="7">
         <v>2</v>
       </c>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
       <c r="P17" s="7"/>
-      <c r="Q17" s="17"/>
-    </row>
-    <row r="18" spans="2:17">
-      <c r="B18" s="9"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="17"/>
-    </row>
-    <row r="19" spans="2:17">
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="18"/>
+    </row>
+    <row r="18" spans="2:19">
+      <c r="B18" s="10"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="18"/>
+    </row>
+    <row r="19" spans="2:19">
       <c r="B19" s="7"/>
       <c r="C19" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>19</v>
+        <v>56</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>21</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F19" s="7">
         <v>4</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I19" s="7">
+        <v>23</v>
+      </c>
+      <c r="H19" s="9">
+        <f>SUM(128,128,128)</f>
+        <v>384</v>
+      </c>
+      <c r="I19" s="8">
+        <v>128</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K19" s="7">
         <v>3</v>
       </c>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
       <c r="P19" s="7"/>
       <c r="Q19" s="7"/>
-    </row>
-    <row r="20" spans="2:17">
+      <c r="R19" s="7"/>
+      <c r="S19" s="7"/>
+    </row>
+    <row r="20" spans="2:19">
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
-      <c r="D20" s="12"/>
+      <c r="D20" s="13"/>
       <c r="E20" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F20" s="7">
         <v>5</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I20" s="7">
+        <v>23</v>
+      </c>
+      <c r="H20" s="8">
+        <v>256</v>
+      </c>
+      <c r="I20" s="8">
+        <v>128</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K20" s="7">
         <v>2</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>57</v>
@@ -2441,73 +2538,86 @@
       <c r="M20" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="N20" s="7"/>
-      <c r="O20" s="7"/>
-      <c r="P20" s="7" t="s">
+      <c r="N20" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="Q20" s="7" t="s">
+      <c r="O20" s="7" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="21" spans="2:17">
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="S20" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="2:19">
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
-      <c r="D21" s="12"/>
+      <c r="D21" s="13"/>
       <c r="E21" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F21" s="7">
         <v>3</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I21" s="7">
+        <v>23</v>
+      </c>
+      <c r="H21" s="8">
+        <v>256</v>
+      </c>
+      <c r="I21" s="8">
+        <v>128</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K21" s="7">
         <v>2</v>
       </c>
-      <c r="J21" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
+      <c r="L21" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="M21" s="7" t="s">
+        <v>49</v>
+      </c>
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
-      <c r="P21" s="7" t="s">
-        <v>61</v>
-      </c>
+      <c r="P21" s="7"/>
       <c r="Q21" s="7"/>
-    </row>
-    <row r="22" spans="2:17">
+      <c r="R21" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="S21" s="7"/>
+    </row>
+    <row r="22" spans="2:19">
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
-      <c r="D22" s="12"/>
+      <c r="D22" s="13"/>
       <c r="E22" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F22" s="7">
         <v>5</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H22" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I22" s="7">
+        <v>23</v>
+      </c>
+      <c r="H22" s="7">
+        <f>SUM(128,128,128,128,128,128)</f>
+        <v>768</v>
+      </c>
+      <c r="I22" s="8">
+        <v>128</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K22" s="7">
         <v>6</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>64</v>
@@ -2524,32 +2634,39 @@
       <c r="P22" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="Q22" s="7"/>
-    </row>
-    <row r="23" spans="2:17">
+      <c r="Q22" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="R22" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="S22" s="7"/>
+    </row>
+    <row r="23" spans="2:19">
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
-      <c r="D23" s="12"/>
+      <c r="D23" s="13"/>
       <c r="E23" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F23" s="7">
         <v>2</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H23" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I23" s="7">
+        <v>23</v>
+      </c>
+      <c r="H23" s="7">
+        <f>SUM(128,128,128,128,128,128)</f>
+        <v>768</v>
+      </c>
+      <c r="I23" s="8">
+        <v>128</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K23" s="7">
         <v>6</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>64</v>
@@ -2564,36 +2681,43 @@
         <v>67</v>
       </c>
       <c r="P23" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="Q23" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="2:17">
+      <c r="R23" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="S23" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="2:19">
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
-      <c r="D24" s="13"/>
+      <c r="D24" s="14"/>
       <c r="E24" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F24" s="7">
         <v>2</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I24" s="7">
+        <v>23</v>
+      </c>
+      <c r="H24" s="7">
+        <f>SUM(128,128,128,128,128,128)</f>
+        <v>768</v>
+      </c>
+      <c r="I24" s="8">
+        <v>128</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K24" s="7">
         <v>6</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>64</v>
@@ -2608,86 +2732,101 @@
         <v>67</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="2:17">
-      <c r="B25" s="14"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="15"/>
-      <c r="L25" s="15"/>
-      <c r="M25" s="15"/>
-      <c r="N25" s="15"/>
-      <c r="O25" s="15"/>
-      <c r="P25" s="15"/>
-      <c r="Q25" s="17"/>
-    </row>
-    <row r="26" spans="2:17">
+        <v>69</v>
+      </c>
+      <c r="R24" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="S24" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="2:19">
+      <c r="B25" s="15"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="16"/>
+      <c r="M25" s="16"/>
+      <c r="N25" s="16"/>
+      <c r="O25" s="16"/>
+      <c r="P25" s="16"/>
+      <c r="Q25" s="16"/>
+      <c r="R25" s="16"/>
+      <c r="S25" s="18"/>
+    </row>
+    <row r="26" spans="2:19">
       <c r="B26" s="7"/>
       <c r="C26" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>74</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F26" s="7">
         <v>4</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H26" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I26" s="7">
+        <v>23</v>
+      </c>
+      <c r="H26" s="9">
+        <f>SUM(128,128,128)</f>
+        <v>384</v>
+      </c>
+      <c r="I26" s="8">
+        <v>128</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K26" s="7">
         <v>3</v>
       </c>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
       <c r="L26" s="7"/>
       <c r="M26" s="7"/>
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
       <c r="P26" s="7"/>
       <c r="Q26" s="7"/>
-    </row>
-    <row r="27" spans="2:17">
+      <c r="R26" s="7"/>
+      <c r="S26" s="7"/>
+    </row>
+    <row r="27" spans="2:19">
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
-      <c r="D27" s="12"/>
+      <c r="D27" s="13"/>
       <c r="E27" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F27" s="7">
         <v>5</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H27" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I27" s="7">
+        <v>23</v>
+      </c>
+      <c r="H27" s="9">
+        <v>256</v>
+      </c>
+      <c r="I27" s="8">
+        <v>128</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K27" s="7">
         <v>2</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="L27" s="7" t="s">
         <v>57</v>
@@ -2695,73 +2834,86 @@
       <c r="M27" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="N27" s="7"/>
-      <c r="O27" s="7"/>
-      <c r="P27" s="7" t="s">
+      <c r="N27" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="Q27" s="24" t="s">
+      <c r="O27" s="7" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="28" spans="2:17">
+      <c r="P27" s="7"/>
+      <c r="Q27" s="7"/>
+      <c r="R27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="S27" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="2:19">
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
-      <c r="D28" s="12"/>
+      <c r="D28" s="13"/>
       <c r="E28" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F28" s="7">
         <v>3</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H28" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I28" s="7">
+        <v>23</v>
+      </c>
+      <c r="H28" s="9">
+        <v>256</v>
+      </c>
+      <c r="I28" s="8">
+        <v>128</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K28" s="7">
         <v>2</v>
       </c>
-      <c r="J28" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="L28" s="7"/>
-      <c r="M28" s="7"/>
+      <c r="L28" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="M28" s="7" t="s">
+        <v>49</v>
+      </c>
       <c r="N28" s="7"/>
       <c r="O28" s="7"/>
-      <c r="P28" s="7" t="s">
-        <v>61</v>
-      </c>
+      <c r="P28" s="7"/>
       <c r="Q28" s="7"/>
-    </row>
-    <row r="29" spans="2:17">
+      <c r="R28" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="S28" s="7"/>
+    </row>
+    <row r="29" spans="2:19">
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
-      <c r="D29" s="12"/>
+      <c r="D29" s="13"/>
       <c r="E29" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F29" s="7">
         <v>5</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H29" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I29" s="7">
+        <v>23</v>
+      </c>
+      <c r="H29" s="9">
+        <f>SUM(128,128,128,128)</f>
+        <v>512</v>
+      </c>
+      <c r="I29" s="8">
+        <v>128</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K29" s="7">
         <v>4</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>76</v>
@@ -2769,37 +2921,44 @@
       <c r="M29" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="N29" s="7"/>
-      <c r="O29" s="7"/>
-      <c r="P29" s="7" t="s">
+      <c r="N29" s="7" t="s">
         <v>78</v>
       </c>
+      <c r="O29" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="P29" s="7"/>
       <c r="Q29" s="7"/>
-    </row>
-    <row r="30" spans="2:17">
+      <c r="R29" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="S29" s="7"/>
+    </row>
+    <row r="30" spans="2:19">
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
-      <c r="D30" s="12"/>
+      <c r="D30" s="13"/>
       <c r="E30" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F30" s="7">
         <v>2</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H30" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I30" s="7">
+        <v>23</v>
+      </c>
+      <c r="H30" s="9">
+        <f>SUM(128,128,128,128)</f>
+        <v>512</v>
+      </c>
+      <c r="I30" s="8">
+        <v>128</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K30" s="7">
         <v>4</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="L30" s="7" t="s">
         <v>82</v>
@@ -2807,37 +2966,44 @@
       <c r="M30" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="N30" s="7"/>
-      <c r="O30" s="7"/>
-      <c r="P30" s="7" t="s">
+      <c r="N30" s="7" t="s">
         <v>84</v>
       </c>
+      <c r="O30" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P30" s="7"/>
       <c r="Q30" s="7"/>
-    </row>
-    <row r="31" spans="2:17">
+      <c r="R30" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="S30" s="7"/>
+    </row>
+    <row r="31" spans="2:19">
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
-      <c r="D31" s="13"/>
+      <c r="D31" s="14"/>
       <c r="E31" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F31" s="7">
         <v>2</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H31" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I31" s="7">
+        <v>23</v>
+      </c>
+      <c r="H31" s="9">
+        <f>SUM(128,128,128,128)</f>
+        <v>512</v>
+      </c>
+      <c r="I31" s="8">
+        <v>128</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K31" s="7">
         <v>4</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="L31" s="7" t="s">
         <v>76</v>
@@ -2845,367 +3011,435 @@
       <c r="M31" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="N31" s="7"/>
-      <c r="O31" s="7"/>
-      <c r="P31" s="7" t="s">
-        <v>86</v>
-      </c>
+      <c r="N31" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="P31" s="7"/>
       <c r="Q31" s="7"/>
-    </row>
-    <row r="32" spans="2:17">
-      <c r="B32" s="14"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="15"/>
-      <c r="K32" s="15"/>
-      <c r="L32" s="15"/>
-      <c r="M32" s="15"/>
-      <c r="N32" s="15"/>
-      <c r="O32" s="15"/>
-      <c r="P32" s="15"/>
-      <c r="Q32" s="17"/>
-    </row>
-    <row r="33" spans="2:17">
+      <c r="R31" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="S31" s="7"/>
+    </row>
+    <row r="32" spans="2:19">
+      <c r="B32" s="15"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="16"/>
+      <c r="N32" s="16"/>
+      <c r="O32" s="16"/>
+      <c r="P32" s="16"/>
+      <c r="Q32" s="16"/>
+      <c r="R32" s="16"/>
+      <c r="S32" s="18"/>
+    </row>
+    <row r="33" spans="2:19">
       <c r="B33" s="7"/>
       <c r="C33" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="D33" s="11" t="s">
-        <v>19</v>
+        <v>89</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>21</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F33" s="7">
         <v>4</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H33" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I33" s="7">
+        <v>23</v>
+      </c>
+      <c r="H33" s="9">
+        <f>SUM(128,128,128)</f>
+        <v>384</v>
+      </c>
+      <c r="I33" s="8">
+        <v>128</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K33" s="7">
         <v>3</v>
       </c>
-      <c r="J33" s="7"/>
-      <c r="K33" s="7"/>
       <c r="L33" s="7"/>
       <c r="M33" s="7"/>
       <c r="N33" s="7"/>
       <c r="O33" s="7"/>
       <c r="P33" s="7"/>
       <c r="Q33" s="7"/>
-    </row>
-    <row r="34" spans="2:17">
+      <c r="R33" s="7"/>
+      <c r="S33" s="7"/>
+    </row>
+    <row r="34" spans="2:19">
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
-      <c r="D34" s="12"/>
+      <c r="D34" s="13"/>
       <c r="E34" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F34" s="7">
         <v>5</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H34" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I34" s="7">
+        <v>23</v>
+      </c>
+      <c r="H34" s="9">
+        <v>256</v>
+      </c>
+      <c r="I34" s="8">
+        <v>128</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K34" s="7">
         <v>2</v>
       </c>
-      <c r="J34" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="L34" s="7"/>
-      <c r="M34" s="7"/>
+      <c r="L34" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="M34" s="7" t="s">
+        <v>91</v>
+      </c>
       <c r="N34" s="7"/>
       <c r="O34" s="7"/>
-      <c r="P34" s="7" t="s">
-        <v>90</v>
-      </c>
+      <c r="P34" s="7"/>
       <c r="Q34" s="7"/>
-    </row>
-    <row r="35" spans="2:17">
+      <c r="R34" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="S34" s="7"/>
+    </row>
+    <row r="35" spans="2:19">
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
-      <c r="D35" s="12"/>
+      <c r="D35" s="13"/>
       <c r="E35" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F35" s="7">
         <v>3</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H35" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I35" s="7">
+        <v>23</v>
+      </c>
+      <c r="H35" s="7">
+        <v>128</v>
+      </c>
+      <c r="I35" s="8">
+        <v>128</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K35" s="7">
         <v>1</v>
       </c>
-      <c r="J35" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="K35" s="7"/>
-      <c r="L35" s="7"/>
-      <c r="M35" s="21"/>
+      <c r="L35" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="M35" s="7"/>
       <c r="N35" s="7"/>
-      <c r="O35" s="7"/>
-      <c r="P35" s="7" t="s">
-        <v>61</v>
-      </c>
+      <c r="O35" s="12"/>
+      <c r="P35" s="7"/>
       <c r="Q35" s="7"/>
-    </row>
-    <row r="36" spans="2:17">
+      <c r="R35" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="S35" s="7"/>
+    </row>
+    <row r="36" spans="2:19">
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
-      <c r="D36" s="12"/>
+      <c r="D36" s="13"/>
       <c r="E36" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F36" s="7">
         <v>5</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H36" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I36" s="7">
+        <v>23</v>
+      </c>
+      <c r="H36" s="9">
+        <f>SUM(128,128,128)</f>
+        <v>384</v>
+      </c>
+      <c r="I36" s="8">
+        <v>128</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K36" s="7">
         <v>3</v>
       </c>
-      <c r="J36" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="L36" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="M36" s="20"/>
-      <c r="N36" s="17"/>
+      <c r="L36" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="M36" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="N36" s="15" t="s">
+        <v>94</v>
+      </c>
       <c r="O36" s="7"/>
-      <c r="P36" s="7" t="s">
-        <v>93</v>
-      </c>
+      <c r="P36" s="18"/>
       <c r="Q36" s="7"/>
-    </row>
-    <row r="37" spans="2:17">
+      <c r="R36" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="S36" s="7"/>
+    </row>
+    <row r="37" spans="2:19">
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
-      <c r="D37" s="12"/>
+      <c r="D37" s="13"/>
       <c r="E37" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F37" s="7">
         <v>2</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H37" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I37" s="7">
+        <v>23</v>
+      </c>
+      <c r="H37" s="9">
+        <f>SUM(128,128,128)</f>
+        <v>384</v>
+      </c>
+      <c r="I37" s="8">
+        <v>128</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K37" s="7">
         <v>3</v>
       </c>
-      <c r="J37" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="L37" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="M37" s="20"/>
-      <c r="N37" s="17"/>
+      <c r="L37" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="M37" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="N37" s="15" t="s">
+        <v>94</v>
+      </c>
       <c r="O37" s="7"/>
-      <c r="P37" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="38" spans="2:17">
+      <c r="P37" s="18"/>
+      <c r="Q37" s="7"/>
+      <c r="R37" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="S37" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="2:19">
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
-      <c r="D38" s="13"/>
+      <c r="D38" s="14"/>
       <c r="E38" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F38" s="7">
         <v>2</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H38" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I38" s="7">
+        <v>23</v>
+      </c>
+      <c r="H38" s="9">
+        <f>SUM(128,128,128)</f>
+        <v>384</v>
+      </c>
+      <c r="I38" s="8">
+        <v>128</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K38" s="7">
         <v>3</v>
       </c>
-      <c r="J38" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="L38" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="M38" s="20"/>
-      <c r="N38" s="17"/>
+      <c r="L38" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="M38" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="N38" s="15" t="s">
+        <v>94</v>
+      </c>
       <c r="O38" s="7"/>
-      <c r="P38" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="39" spans="2:17">
-      <c r="B39" s="14"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="15"/>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="15"/>
-      <c r="K39" s="15"/>
-      <c r="L39" s="15"/>
-      <c r="M39" s="10"/>
-      <c r="N39" s="15"/>
-      <c r="O39" s="15"/>
-      <c r="P39" s="15"/>
-      <c r="Q39" s="17"/>
-    </row>
-    <row r="40" spans="2:17">
+      <c r="P38" s="18"/>
+      <c r="Q38" s="7"/>
+      <c r="R38" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="S38" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19">
+      <c r="B39" s="15"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="16"/>
+      <c r="J39" s="16"/>
+      <c r="K39" s="16"/>
+      <c r="L39" s="16"/>
+      <c r="M39" s="16"/>
+      <c r="N39" s="16"/>
+      <c r="O39" s="11"/>
+      <c r="P39" s="16"/>
+      <c r="Q39" s="16"/>
+      <c r="R39" s="16"/>
+      <c r="S39" s="18"/>
+    </row>
+    <row r="40" spans="2:19">
       <c r="B40" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="C40" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="D40" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="E40" s="17" t="s">
+      <c r="C40" s="15" t="s">
         <v>97</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E40" s="18" t="s">
+        <v>99</v>
       </c>
       <c r="F40" s="7">
         <v>5</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="H40" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
+      </c>
+      <c r="H40" s="7">
+        <v>64</v>
       </c>
       <c r="I40" s="7">
+        <v>64</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="K40" s="7">
         <v>1</v>
       </c>
-      <c r="J40" s="7"/>
-      <c r="K40" s="7"/>
       <c r="L40" s="7"/>
       <c r="M40" s="7"/>
       <c r="N40" s="7"/>
       <c r="O40" s="7"/>
-      <c r="P40" s="7" t="s">
-        <v>100</v>
-      </c>
+      <c r="P40" s="7"/>
       <c r="Q40" s="7"/>
-    </row>
-    <row r="41" spans="2:17">
+      <c r="R40" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="S40" s="7"/>
+    </row>
+    <row r="41" spans="2:19">
       <c r="B41" s="7"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="17" t="s">
-        <v>101</v>
+      <c r="C41" s="15"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="18" t="s">
+        <v>103</v>
       </c>
       <c r="F41" s="7">
         <v>2</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="H41" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
+      </c>
+      <c r="H41" s="7">
+        <v>64</v>
       </c>
       <c r="I41" s="7">
+        <v>64</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="K41" s="7">
         <v>1</v>
       </c>
-      <c r="J41" s="7"/>
-      <c r="K41" s="7"/>
       <c r="L41" s="7"/>
       <c r="M41" s="7"/>
       <c r="N41" s="7"/>
       <c r="O41" s="7"/>
-      <c r="P41" s="7" t="s">
-        <v>102</v>
-      </c>
+      <c r="P41" s="7"/>
       <c r="Q41" s="7"/>
-    </row>
-    <row r="42" spans="2:17">
+      <c r="R41" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="S41" s="7"/>
+    </row>
+    <row r="42" spans="2:19">
       <c r="B42" s="7"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="17" t="s">
-        <v>103</v>
+      <c r="C42" s="15"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="18" t="s">
+        <v>105</v>
       </c>
       <c r="F42" s="7">
         <v>2</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="H42" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
+      </c>
+      <c r="H42" s="7">
+        <v>64</v>
       </c>
       <c r="I42" s="7">
+        <v>64</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="K42" s="7">
         <v>1</v>
       </c>
-      <c r="J42" s="7"/>
-      <c r="K42" s="7"/>
       <c r="L42" s="7"/>
       <c r="M42" s="7"/>
       <c r="N42" s="7"/>
       <c r="O42" s="7"/>
-      <c r="P42" s="7" t="s">
-        <v>104</v>
-      </c>
+      <c r="P42" s="7"/>
       <c r="Q42" s="7"/>
-    </row>
-    <row r="43" spans="2:17">
+      <c r="R42" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="S42" s="7"/>
+    </row>
+    <row r="43" spans="2:19">
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
-      <c r="D43" s="18"/>
+      <c r="D43" s="19"/>
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
-      <c r="H43" s="7" t="s">
-        <v>99</v>
-      </c>
+      <c r="H43" s="7"/>
       <c r="I43" s="7"/>
-      <c r="J43" s="7"/>
+      <c r="J43" s="7" t="s">
+        <v>101</v>
+      </c>
       <c r="K43" s="7"/>
       <c r="L43" s="7"/>
       <c r="M43" s="7"/>
@@ -3213,89 +3447,101 @@
       <c r="O43" s="7"/>
       <c r="P43" s="7"/>
       <c r="Q43" s="7"/>
-    </row>
-    <row r="44" spans="2:17">
+      <c r="R43" s="7"/>
+      <c r="S43" s="7"/>
+    </row>
+    <row r="44" spans="2:19">
       <c r="B44" s="7"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="E44" s="17" t="s">
-        <v>105</v>
+      <c r="C44" s="15"/>
+      <c r="D44" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="E44" s="18" t="s">
+        <v>107</v>
       </c>
       <c r="F44" s="7">
         <v>2</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="H44" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="I44" s="7">
+        <v>100</v>
+      </c>
+      <c r="H44" s="9">
+        <f>SUM(128,128,128)</f>
+        <v>384</v>
+      </c>
+      <c r="I44" s="9">
+        <v>64</v>
+      </c>
+      <c r="J44" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="K44" s="7">
         <v>3</v>
       </c>
-      <c r="J44" s="7"/>
-      <c r="K44" s="7"/>
       <c r="L44" s="7"/>
       <c r="M44" s="7"/>
       <c r="N44" s="7"/>
       <c r="O44" s="7"/>
-      <c r="P44" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q44" s="7" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="45" spans="2:17">
-      <c r="B45" s="14"/>
-      <c r="C45" s="15"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="15"/>
-      <c r="F45" s="15"/>
-      <c r="G45" s="15"/>
-      <c r="H45" s="15"/>
-      <c r="I45" s="15"/>
-      <c r="J45" s="15"/>
-      <c r="K45" s="15"/>
-      <c r="L45" s="15"/>
-      <c r="M45" s="15"/>
-      <c r="N45" s="15"/>
-      <c r="O45" s="15"/>
-      <c r="P45" s="15"/>
-      <c r="Q45" s="17"/>
-    </row>
-    <row r="46" spans="2:17">
+      <c r="P44" s="7"/>
+      <c r="Q44" s="7"/>
+      <c r="R44" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="S44" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19">
+      <c r="B45" s="15"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="16"/>
+      <c r="H45" s="16"/>
+      <c r="I45" s="16"/>
+      <c r="J45" s="16"/>
+      <c r="K45" s="16"/>
+      <c r="L45" s="16"/>
+      <c r="M45" s="16"/>
+      <c r="N45" s="16"/>
+      <c r="O45" s="16"/>
+      <c r="P45" s="16"/>
+      <c r="Q45" s="16"/>
+      <c r="R45" s="16"/>
+      <c r="S45" s="18"/>
+    </row>
+    <row r="46" spans="2:19">
       <c r="B46" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="D46" s="11" t="s">
-        <v>72</v>
+        <v>111</v>
+      </c>
+      <c r="D46" s="12" t="s">
+        <v>74</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F46" s="7">
         <v>3</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="H46" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="I46" s="7">
+        <v>113</v>
+      </c>
+      <c r="H46" s="9">
+        <f>SUM(384,384,384,384)</f>
+        <v>1536</v>
+      </c>
+      <c r="I46" s="9">
+        <v>384</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K46" s="7">
         <v>4</v>
-      </c>
-      <c r="J46" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="K46" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="L46" s="7" t="s">
         <v>115</v>
@@ -3303,19 +3549,25 @@
       <c r="M46" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="N46" s="7"/>
-      <c r="O46" s="7"/>
-      <c r="P46" s="7" t="s">
+      <c r="N46" s="7" t="s">
         <v>117</v>
       </c>
+      <c r="O46" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P46" s="7"/>
       <c r="Q46" s="7"/>
-    </row>
-    <row r="47" spans="2:17">
+      <c r="R46" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="S46" s="7"/>
+    </row>
+    <row r="47" spans="2:19">
       <c r="B47" s="7"/>
       <c r="C47" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="D47" s="12"/>
+        <v>120</v>
+      </c>
+      <c r="D47" s="13"/>
       <c r="E47" s="7"/>
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
@@ -3329,43 +3581,52 @@
       <c r="O47" s="7"/>
       <c r="P47" s="7"/>
       <c r="Q47" s="7"/>
-    </row>
-    <row r="48" spans="2:17">
+      <c r="R47" s="7"/>
+      <c r="S47" s="7"/>
+    </row>
+    <row r="48" spans="2:19">
       <c r="B48" s="7"/>
       <c r="C48" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="D48" s="12"/>
+        <v>121</v>
+      </c>
+      <c r="D48" s="13"/>
       <c r="E48" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F48" s="7">
         <v>3</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="H48" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="I48" s="7">
+        <v>123</v>
+      </c>
+      <c r="H48" s="9">
+        <f>SUM(128,128,128,128)</f>
+        <v>512</v>
+      </c>
+      <c r="I48" s="9">
+        <v>512</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K48" s="7">
         <v>4</v>
       </c>
-      <c r="J48" s="7"/>
-      <c r="K48" s="7"/>
       <c r="L48" s="7"/>
       <c r="M48" s="7"/>
       <c r="N48" s="7"/>
       <c r="O48" s="7"/>
-      <c r="P48" s="7" t="s">
-        <v>122</v>
-      </c>
+      <c r="P48" s="7"/>
       <c r="Q48" s="7"/>
-    </row>
-    <row r="49" spans="2:17">
+      <c r="R48" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="S48" s="7"/>
+    </row>
+    <row r="49" spans="2:19">
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
-      <c r="D49" s="13"/>
+      <c r="D49" s="14"/>
       <c r="E49" s="7"/>
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
@@ -3379,522 +3640,606 @@
       <c r="O49" s="7"/>
       <c r="P49" s="7"/>
       <c r="Q49" s="7"/>
-    </row>
-    <row r="50" spans="2:17">
-      <c r="B50" s="14"/>
-      <c r="C50" s="15"/>
-      <c r="D50" s="15"/>
-      <c r="E50" s="15"/>
-      <c r="F50" s="15"/>
-      <c r="G50" s="15"/>
-      <c r="H50" s="15"/>
-      <c r="I50" s="15"/>
-      <c r="J50" s="15"/>
-      <c r="K50" s="15"/>
-      <c r="L50" s="15"/>
-      <c r="M50" s="15"/>
-      <c r="N50" s="15"/>
-      <c r="O50" s="15"/>
-      <c r="P50" s="15"/>
-      <c r="Q50" s="17"/>
-    </row>
-    <row r="51" spans="2:17">
+      <c r="R49" s="7"/>
+      <c r="S49" s="7"/>
+    </row>
+    <row r="50" spans="2:19">
+      <c r="B50" s="15"/>
+      <c r="C50" s="16"/>
+      <c r="D50" s="16"/>
+      <c r="E50" s="16"/>
+      <c r="F50" s="16"/>
+      <c r="G50" s="16"/>
+      <c r="H50" s="16"/>
+      <c r="I50" s="16"/>
+      <c r="J50" s="16"/>
+      <c r="K50" s="16"/>
+      <c r="L50" s="16"/>
+      <c r="M50" s="16"/>
+      <c r="N50" s="16"/>
+      <c r="O50" s="16"/>
+      <c r="P50" s="16"/>
+      <c r="Q50" s="16"/>
+      <c r="R50" s="16"/>
+      <c r="S50" s="18"/>
+    </row>
+    <row r="51" spans="2:19">
       <c r="B51" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F51" s="7">
         <v>1</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="H51" s="7" t="s">
-        <v>22</v>
+        <v>100</v>
+      </c>
+      <c r="H51" s="7">
+        <v>64</v>
       </c>
       <c r="I51" s="7">
+        <v>64</v>
+      </c>
+      <c r="J51" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K51" s="7">
         <v>1</v>
       </c>
-      <c r="J51" s="7"/>
-      <c r="K51" s="7"/>
       <c r="L51" s="7"/>
       <c r="M51" s="7"/>
       <c r="N51" s="7"/>
       <c r="O51" s="7"/>
-      <c r="P51" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q51" s="7" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="52" spans="2:17">
+      <c r="P51" s="7"/>
+      <c r="Q51" s="7"/>
+      <c r="R51" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="S51" s="7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="52" spans="2:19">
       <c r="B52" s="7"/>
       <c r="C52" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="D52" s="11" t="s">
-        <v>72</v>
+        <v>130</v>
+      </c>
+      <c r="D52" s="12" t="s">
+        <v>74</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F52" s="7">
         <v>1</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="H52" s="7" t="s">
-        <v>22</v>
+        <v>132</v>
+      </c>
+      <c r="H52" s="7">
+        <v>64</v>
       </c>
       <c r="I52" s="7">
+        <v>32</v>
+      </c>
+      <c r="J52" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K52" s="7">
         <v>2</v>
       </c>
-      <c r="J52" s="7"/>
-      <c r="K52" s="7"/>
       <c r="L52" s="7"/>
       <c r="M52" s="7"/>
       <c r="N52" s="7"/>
       <c r="O52" s="7"/>
-      <c r="P52" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q52" s="7" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="53" spans="2:17">
+      <c r="P52" s="7"/>
+      <c r="Q52" s="7"/>
+      <c r="R52" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="S52" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="53" spans="2:19">
       <c r="B53" s="7"/>
       <c r="C53" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="D53" s="12"/>
+        <v>134</v>
+      </c>
+      <c r="D53" s="13"/>
       <c r="E53" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F53" s="7">
         <v>1</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="H53" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I53" s="7">
+        <v>136</v>
+      </c>
+      <c r="H53" s="9">
+        <v>768</v>
+      </c>
+      <c r="I53" s="9">
+        <v>192</v>
+      </c>
+      <c r="J53" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K53" s="7">
         <v>4</v>
       </c>
-      <c r="J53" s="7"/>
-      <c r="K53" s="7"/>
       <c r="L53" s="7"/>
       <c r="M53" s="7"/>
       <c r="N53" s="7"/>
       <c r="O53" s="7"/>
-      <c r="P53" s="7" t="s">
-        <v>135</v>
-      </c>
+      <c r="P53" s="7"/>
       <c r="Q53" s="7"/>
-    </row>
-    <row r="54" spans="2:17">
+      <c r="R53" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="S53" s="7"/>
+    </row>
+    <row r="54" spans="2:19">
       <c r="B54" s="7"/>
       <c r="C54" s="7"/>
-      <c r="D54" s="13"/>
+      <c r="D54" s="14"/>
       <c r="E54" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F54" s="7">
         <v>1</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="H54" s="7" t="s">
-        <v>137</v>
+        <v>100</v>
+      </c>
+      <c r="H54" s="7">
+        <v>320</v>
       </c>
       <c r="I54" s="7">
+        <v>64</v>
+      </c>
+      <c r="J54" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="K54" s="7">
         <v>5</v>
       </c>
-      <c r="J54" s="7"/>
-      <c r="K54" s="7"/>
       <c r="L54" s="7"/>
       <c r="M54" s="7"/>
       <c r="N54" s="7"/>
       <c r="O54" s="7"/>
       <c r="P54" s="7"/>
-      <c r="Q54" s="7" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="55" spans="2:17">
-      <c r="B55" s="14"/>
-      <c r="C55" s="15"/>
-      <c r="D55" s="15"/>
-      <c r="E55" s="15"/>
-      <c r="F55" s="15"/>
-      <c r="G55" s="15"/>
-      <c r="H55" s="15"/>
-      <c r="I55" s="15"/>
-      <c r="J55" s="15"/>
-      <c r="K55" s="15"/>
-      <c r="L55" s="15"/>
-      <c r="M55" s="15"/>
-      <c r="N55" s="15"/>
-      <c r="O55" s="15"/>
-      <c r="P55" s="15"/>
-      <c r="Q55" s="17"/>
-    </row>
-    <row r="56" spans="2:17">
+      <c r="Q54" s="7"/>
+      <c r="R54" s="7"/>
+      <c r="S54" s="7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="55" spans="2:19">
+      <c r="B55" s="15"/>
+      <c r="C55" s="16"/>
+      <c r="D55" s="16"/>
+      <c r="E55" s="16"/>
+      <c r="F55" s="16"/>
+      <c r="G55" s="16"/>
+      <c r="H55" s="16"/>
+      <c r="I55" s="16"/>
+      <c r="J55" s="16"/>
+      <c r="K55" s="16"/>
+      <c r="L55" s="16"/>
+      <c r="M55" s="16"/>
+      <c r="N55" s="16"/>
+      <c r="O55" s="16"/>
+      <c r="P55" s="16"/>
+      <c r="Q55" s="16"/>
+      <c r="R55" s="16"/>
+      <c r="S55" s="18"/>
+    </row>
+    <row r="56" spans="2:19">
       <c r="B56" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D56" s="7"/>
       <c r="E56" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F56" s="7">
         <v>1</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="H56" s="7" t="s">
-        <v>99</v>
+        <v>144</v>
+      </c>
+      <c r="H56" s="7">
+        <v>1440</v>
       </c>
       <c r="I56" s="7">
+        <v>810</v>
+      </c>
+      <c r="J56" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="K56" s="7">
         <v>1</v>
       </c>
-      <c r="J56" s="7"/>
-      <c r="K56" s="7"/>
       <c r="L56" s="7"/>
       <c r="M56" s="7"/>
       <c r="N56" s="7"/>
       <c r="O56" s="7"/>
       <c r="P56" s="7"/>
       <c r="Q56" s="7"/>
-    </row>
-    <row r="57" spans="2:17">
+      <c r="R56" s="7"/>
+      <c r="S56" s="7"/>
+    </row>
+    <row r="57" spans="2:19">
       <c r="B57" s="7"/>
       <c r="C57" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D57" s="7"/>
       <c r="E57" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F57" s="7">
         <v>1</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="H57" s="7" t="s">
-        <v>99</v>
+        <v>144</v>
+      </c>
+      <c r="H57" s="7">
+        <v>1440</v>
       </c>
       <c r="I57" s="7">
+        <v>810</v>
+      </c>
+      <c r="J57" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="K57" s="7">
         <v>1</v>
       </c>
-      <c r="J57" s="7"/>
-      <c r="K57" s="7"/>
       <c r="L57" s="7"/>
       <c r="M57" s="7"/>
       <c r="N57" s="7"/>
       <c r="O57" s="7"/>
       <c r="P57" s="7"/>
       <c r="Q57" s="7"/>
-    </row>
-    <row r="58" spans="2:17">
-      <c r="B58" s="14"/>
-      <c r="C58" s="15"/>
-      <c r="D58" s="15"/>
-      <c r="E58" s="15"/>
-      <c r="F58" s="15"/>
-      <c r="G58" s="15"/>
-      <c r="H58" s="15"/>
-      <c r="I58" s="15"/>
-      <c r="J58" s="15"/>
-      <c r="K58" s="15"/>
-      <c r="L58" s="15"/>
-      <c r="M58" s="15"/>
-      <c r="N58" s="15"/>
-      <c r="O58" s="15"/>
-      <c r="P58" s="15"/>
-      <c r="Q58" s="17"/>
-    </row>
-    <row r="59" spans="2:17">
+      <c r="R57" s="7"/>
+      <c r="S57" s="7"/>
+    </row>
+    <row r="58" spans="2:19">
+      <c r="B58" s="15"/>
+      <c r="C58" s="16"/>
+      <c r="D58" s="16"/>
+      <c r="E58" s="16"/>
+      <c r="F58" s="16"/>
+      <c r="G58" s="16"/>
+      <c r="H58" s="16"/>
+      <c r="I58" s="16"/>
+      <c r="J58" s="16"/>
+      <c r="K58" s="16"/>
+      <c r="L58" s="16"/>
+      <c r="M58" s="16"/>
+      <c r="N58" s="16"/>
+      <c r="O58" s="16"/>
+      <c r="P58" s="16"/>
+      <c r="Q58" s="16"/>
+      <c r="R58" s="16"/>
+      <c r="S58" s="18"/>
+    </row>
+    <row r="59" spans="2:19">
       <c r="B59" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="D59" s="11" t="s">
-        <v>19</v>
+        <v>147</v>
+      </c>
+      <c r="D59" s="12" t="s">
+        <v>21</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F59" s="7">
         <v>1</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="H59" s="7" t="s">
-        <v>99</v>
+        <v>149</v>
+      </c>
+      <c r="H59" s="7">
+        <v>2880</v>
       </c>
       <c r="I59" s="7">
+        <v>1620</v>
+      </c>
+      <c r="J59" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="K59" s="7">
         <v>1</v>
       </c>
-      <c r="J59" s="7"/>
-      <c r="K59" s="7"/>
       <c r="L59" s="7"/>
       <c r="M59" s="7"/>
       <c r="N59" s="7"/>
       <c r="O59" s="7"/>
-      <c r="P59" s="7" t="s">
-        <v>148</v>
-      </c>
+      <c r="P59" s="7"/>
       <c r="Q59" s="7"/>
-    </row>
-    <row r="60" spans="2:17">
+      <c r="R59" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="S59" s="7"/>
+    </row>
+    <row r="60" spans="2:19">
       <c r="B60" s="7"/>
       <c r="C60" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="D60" s="12"/>
+        <v>151</v>
+      </c>
+      <c r="D60" s="13"/>
       <c r="E60" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F60" s="7">
         <v>1</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="H60" s="7" t="s">
-        <v>99</v>
+        <v>153</v>
+      </c>
+      <c r="H60" s="7">
+        <v>2880</v>
       </c>
       <c r="I60" s="7">
+        <v>2430</v>
+      </c>
+      <c r="J60" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="K60" s="7">
         <v>1</v>
       </c>
-      <c r="J60" s="7"/>
-      <c r="K60" s="7"/>
       <c r="L60" s="7"/>
       <c r="M60" s="7"/>
       <c r="N60" s="7"/>
       <c r="O60" s="7"/>
-      <c r="P60" s="7" t="s">
-        <v>152</v>
-      </c>
+      <c r="P60" s="7"/>
       <c r="Q60" s="7"/>
-    </row>
-    <row r="61" spans="2:17">
+      <c r="R60" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="S60" s="7"/>
+    </row>
+    <row r="61" spans="2:19">
       <c r="B61" s="7"/>
       <c r="C61" s="7"/>
-      <c r="D61" s="13"/>
+      <c r="D61" s="14"/>
       <c r="E61" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F61" s="7">
         <v>1</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="H61" s="7" t="s">
-        <v>99</v>
+        <v>153</v>
+      </c>
+      <c r="H61" s="7">
+        <v>2880</v>
       </c>
       <c r="I61" s="7">
+        <v>2430</v>
+      </c>
+      <c r="J61" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="K61" s="7">
         <v>1</v>
       </c>
-      <c r="J61" s="7"/>
-      <c r="K61" s="7"/>
       <c r="L61" s="7"/>
       <c r="M61" s="7"/>
       <c r="N61" s="7"/>
       <c r="O61" s="7"/>
-      <c r="P61" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q61" s="7" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="62" spans="2:17">
-      <c r="B62" s="14"/>
-      <c r="C62" s="15"/>
-      <c r="D62" s="15"/>
-      <c r="E62" s="15"/>
-      <c r="F62" s="15"/>
-      <c r="G62" s="15"/>
-      <c r="H62" s="15"/>
-      <c r="I62" s="15"/>
-      <c r="J62" s="15"/>
-      <c r="K62" s="15"/>
-      <c r="L62" s="15"/>
-      <c r="M62" s="15"/>
-      <c r="N62" s="15"/>
-      <c r="O62" s="15"/>
-      <c r="P62" s="15"/>
-      <c r="Q62" s="17"/>
-    </row>
-    <row r="63" spans="2:17">
+      <c r="P61" s="7"/>
+      <c r="Q61" s="7"/>
+      <c r="R61" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="S61" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="62" spans="2:19">
+      <c r="B62" s="15"/>
+      <c r="C62" s="16"/>
+      <c r="D62" s="16"/>
+      <c r="E62" s="16"/>
+      <c r="F62" s="16"/>
+      <c r="G62" s="16"/>
+      <c r="H62" s="16"/>
+      <c r="I62" s="16"/>
+      <c r="J62" s="16"/>
+      <c r="K62" s="16"/>
+      <c r="L62" s="16"/>
+      <c r="M62" s="16"/>
+      <c r="N62" s="16"/>
+      <c r="O62" s="16"/>
+      <c r="P62" s="16"/>
+      <c r="Q62" s="16"/>
+      <c r="R62" s="16"/>
+      <c r="S62" s="18"/>
+    </row>
+    <row r="63" spans="2:19">
       <c r="B63" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="D63" s="11" t="s">
-        <v>96</v>
+        <v>158</v>
+      </c>
+      <c r="D63" s="12" t="s">
+        <v>98</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F63" s="7">
         <v>2</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="H63" s="7" t="s">
-        <v>99</v>
+        <v>160</v>
+      </c>
+      <c r="H63" s="7">
+        <v>330</v>
       </c>
       <c r="I63" s="7">
+        <v>30</v>
+      </c>
+      <c r="J63" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="K63" s="7">
         <v>1</v>
       </c>
-      <c r="J63" s="7"/>
-      <c r="K63" s="7"/>
       <c r="L63" s="7"/>
       <c r="M63" s="7"/>
       <c r="N63" s="7"/>
       <c r="O63" s="7"/>
-      <c r="P63" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q63" s="21" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="64" spans="2:17">
+      <c r="P63" s="7"/>
+      <c r="Q63" s="7"/>
+      <c r="R63" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="S63" s="12" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="64" spans="2:19">
       <c r="B64" s="7"/>
       <c r="C64" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="D64" s="12"/>
+        <v>163</v>
+      </c>
+      <c r="D64" s="13"/>
       <c r="E64" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F64" s="7">
         <v>2</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="H64" s="7" t="s">
-        <v>99</v>
+        <v>160</v>
+      </c>
+      <c r="H64" s="7">
+        <v>330</v>
       </c>
       <c r="I64" s="7">
+        <v>30</v>
+      </c>
+      <c r="J64" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="K64" s="7">
         <v>1</v>
       </c>
-      <c r="J64" s="7"/>
-      <c r="K64" s="7"/>
       <c r="L64" s="7"/>
       <c r="M64" s="7"/>
       <c r="N64" s="7"/>
       <c r="O64" s="7"/>
-      <c r="P64" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q64" s="25"/>
-    </row>
-    <row r="65" spans="2:17">
+      <c r="P64" s="7"/>
+      <c r="Q64" s="7"/>
+      <c r="R64" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="S64" s="14"/>
+    </row>
+    <row r="65" spans="2:19">
       <c r="B65" s="7"/>
       <c r="C65" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="D65" s="12"/>
+        <v>165</v>
+      </c>
+      <c r="D65" s="13"/>
       <c r="E65" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F65" s="7">
         <v>1</v>
       </c>
       <c r="G65" s="7"/>
-      <c r="H65" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="I65" s="7">
+      <c r="H65" s="7"/>
+      <c r="I65" s="7"/>
+      <c r="J65" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="K65" s="7">
         <v>1</v>
       </c>
-      <c r="J65" s="7"/>
-      <c r="K65" s="7"/>
       <c r="L65" s="7"/>
       <c r="M65" s="7"/>
       <c r="N65" s="7"/>
       <c r="O65" s="7"/>
-      <c r="P65" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q65" s="25"/>
-    </row>
-    <row r="66" spans="2:17">
+      <c r="P65" s="7"/>
+      <c r="Q65" s="7"/>
+      <c r="R65" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="S65" s="14"/>
+    </row>
+    <row r="66" spans="2:19">
       <c r="B66" s="7"/>
       <c r="C66" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="D66" s="13"/>
+        <v>121</v>
+      </c>
+      <c r="D66" s="14"/>
       <c r="E66" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F66" s="7">
         <v>3</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="H66" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
+      </c>
+      <c r="H66" s="7">
+        <v>64</v>
       </c>
       <c r="I66" s="7">
+        <v>64</v>
+      </c>
+      <c r="J66" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="K66" s="7">
         <v>1</v>
       </c>
-      <c r="J66" s="7"/>
-      <c r="K66" s="7"/>
       <c r="L66" s="7"/>
       <c r="M66" s="7"/>
       <c r="N66" s="7"/>
       <c r="O66" s="7"/>
-      <c r="P66" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q66" s="7" t="s">
-        <v>168</v>
+      <c r="P66" s="7"/>
+      <c r="Q66" s="7"/>
+      <c r="R66" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="S66" s="7" t="s">
+        <v>170</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B18:Q18"/>
-    <mergeCell ref="B25:Q25"/>
-    <mergeCell ref="B32:Q32"/>
-    <mergeCell ref="B39:Q39"/>
-    <mergeCell ref="B45:Q45"/>
-    <mergeCell ref="B50:Q50"/>
-    <mergeCell ref="B55:Q55"/>
-    <mergeCell ref="B58:Q58"/>
-    <mergeCell ref="B62:Q62"/>
+    <mergeCell ref="B18:S18"/>
+    <mergeCell ref="B25:S25"/>
+    <mergeCell ref="B32:S32"/>
+    <mergeCell ref="B39:S39"/>
+    <mergeCell ref="B45:S45"/>
+    <mergeCell ref="B50:S50"/>
+    <mergeCell ref="B55:S55"/>
+    <mergeCell ref="B58:S58"/>
+    <mergeCell ref="B62:S62"/>
     <mergeCell ref="D5:D17"/>
     <mergeCell ref="D19:D24"/>
     <mergeCell ref="D26:D31"/>
@@ -3904,7 +4249,7 @@
     <mergeCell ref="D52:D54"/>
     <mergeCell ref="D59:D61"/>
     <mergeCell ref="D63:D66"/>
-    <mergeCell ref="Q63:Q64"/>
+    <mergeCell ref="S63:S64"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3925,62 +4270,62 @@
   <sheetData>
     <row r="2" customHeight="1" spans="2:2">
       <c r="B2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:2">
       <c r="B3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="2:2">
       <c r="B5" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:2">
       <c r="B7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="2:2">
       <c r="B9" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="2:2">
       <c r="B11" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="2:2">
       <c r="B13" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="2:2">
       <c r="B15" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="2:2">
       <c r="B17" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="2:2">
       <c r="B19" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="2:2">
       <c r="B21" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="2:2">
       <c r="B23" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -4005,32 +4350,32 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -4058,24 +4403,24 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" ht="14.25"/>
     <row r="4" ht="14.25" spans="2:3">
       <c r="B4" s="1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="2:3">
       <c r="B5" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -4101,31 +4446,31 @@
   <sheetData>
     <row r="2" ht="14.25" spans="2:2">
       <c r="B2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="2:3">
       <c r="B3" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="2:3">
       <c r="B4" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="2:3">
       <c r="B5" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -4151,37 +4496,37 @@
   <sheetData>
     <row r="2" ht="14.25" spans="2:2">
       <c r="B2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="2:3">
       <c r="B3" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="2:3">
       <c r="B4" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="3:3">
       <c r="C5" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6" ht="14.25"/>
     <row r="7" ht="14.25" spans="2:3">
       <c r="B7" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>

--- a/仕様書/エレメンタル_仕様書_アニメーション.xlsx
+++ b/仕様書/エレメンタル_仕様書_アニメーション.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199">
   <si>
     <t>オブジェクト･アニメーション仕様</t>
   </si>
@@ -109,9 +109,6 @@
   </si>
   <si>
     <t>マント揺れている+前傾姿勢で浮遊</t>
-  </si>
-  <si>
-    <t>ダッシュ</t>
   </si>
   <si>
     <t>ジャンプ</t>
@@ -626,12 +623,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -641,13 +638,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="128"/>
@@ -668,21 +658,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -697,8 +680,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -706,7 +734,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -720,41 +755,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -766,8 +771,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -783,25 +789,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -826,31 +816,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -868,19 +834,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -898,19 +876,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -922,43 +924,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -976,7 +954,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -988,19 +984,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1186,6 +1176,54 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1210,54 +1248,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1271,152 +1261,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1441,10 +1431,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1830,12 +1817,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="B2:S66"/>
+  <dimension ref="B2:S65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J46" sqref="J46"/>
+      <selection pane="bottomLeft" activeCell="B38" sqref="B38:S38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1969,7 +1956,7 @@
       <c r="R5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="S5" s="18"/>
+      <c r="S5" s="17"/>
     </row>
     <row r="6" spans="2:19">
       <c r="B6" s="7"/>
@@ -2009,7 +1996,7 @@
       <c r="R6" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="S6" s="18"/>
+      <c r="S6" s="17"/>
     </row>
     <row r="7" spans="2:19">
       <c r="B7" s="7"/>
@@ -2019,13 +2006,13 @@
         <v>30</v>
       </c>
       <c r="F7" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="8">
-        <v>256</v>
+      <c r="H7" s="7">
+        <v>128</v>
       </c>
       <c r="I7" s="8">
         <v>128</v>
@@ -2034,32 +2021,28 @@
         <v>24</v>
       </c>
       <c r="K7" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="M7" s="7" t="s">
-        <v>26</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="M7" s="7"/>
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
       <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
-      <c r="R7" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="S7" s="18"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="20"/>
     </row>
     <row r="8" spans="2:19">
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F8" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>23</v>
@@ -2076,16 +2059,14 @@
       <c r="K8" s="7">
         <v>1</v>
       </c>
-      <c r="L8" s="7" t="s">
-        <v>32</v>
-      </c>
+      <c r="L8" s="7"/>
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="21"/>
+      <c r="R8" s="14"/>
+      <c r="S8" s="7"/>
     </row>
     <row r="9" spans="2:19">
       <c r="B9" s="7"/>
@@ -2095,13 +2076,14 @@
         <v>33</v>
       </c>
       <c r="F9" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="9">
-        <v>128</v>
+      <c r="H9" s="7">
+        <f>SUM(128,128,128)</f>
+        <v>384</v>
       </c>
       <c r="I9" s="8">
         <v>128</v>
@@ -2110,7 +2092,7 @@
         <v>24</v>
       </c>
       <c r="K9" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
@@ -2118,8 +2100,8 @@
       <c r="O9" s="7"/>
       <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
-      <c r="R9" s="15"/>
-      <c r="S9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="21"/>
     </row>
     <row r="10" spans="2:19">
       <c r="B10" s="7"/>
@@ -2129,7 +2111,7 @@
         <v>34</v>
       </c>
       <c r="F10" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>23</v>
@@ -2147,21 +2129,29 @@
       <c r="K10" s="7">
         <v>3</v>
       </c>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
+      <c r="L10" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="N10" s="7" t="s">
+        <v>35</v>
+      </c>
       <c r="O10" s="7"/>
       <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="22"/>
+      <c r="R10" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="S10" s="17"/>
     </row>
     <row r="11" spans="2:19">
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F11" s="7">
         <v>5</v>
@@ -2170,8 +2160,8 @@
         <v>23</v>
       </c>
       <c r="H11" s="7">
-        <f>SUM(128,128,128)</f>
-        <v>384</v>
+        <f t="shared" ref="H11:H13" si="0">SUM(128,128,128,128)</f>
+        <v>512</v>
       </c>
       <c r="I11" s="8">
         <v>128</v>
@@ -2180,40 +2170,42 @@
         <v>24</v>
       </c>
       <c r="K11" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="N11" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="O11" s="7"/>
+        <v>40</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
-      <c r="R11" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="S11" s="18"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="17" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="12" spans="2:19">
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F12" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>23</v>
       </c>
       <c r="H12" s="7">
-        <f>SUM(128,128,128,128)</f>
+        <f t="shared" si="0"/>
         <v>512</v>
       </c>
       <c r="I12" s="8">
@@ -2226,22 +2218,22 @@
         <v>4</v>
       </c>
       <c r="L12" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="M12" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="M12" s="7" t="s">
+      <c r="N12" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="N12" s="7" t="s">
+      <c r="O12" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
       <c r="R12" s="7"/>
-      <c r="S12" s="18" t="s">
-        <v>43</v>
+      <c r="S12" s="17" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="2:19">
@@ -2249,7 +2241,7 @@
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" s="7">
         <v>2</v>
@@ -2258,7 +2250,7 @@
         <v>23</v>
       </c>
       <c r="H13" s="7">
-        <f>SUM(128,128,128,128)</f>
+        <f t="shared" si="0"/>
         <v>512</v>
       </c>
       <c r="I13" s="8">
@@ -2271,22 +2263,22 @@
         <v>4</v>
       </c>
       <c r="L13" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="M13" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="M13" s="7" t="s">
+      <c r="N13" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="N13" s="7" t="s">
+      <c r="O13" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="P13" s="7"/>
       <c r="Q13" s="7"/>
       <c r="R13" s="7"/>
-      <c r="S13" s="18" t="s">
-        <v>45</v>
+      <c r="S13" s="17" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="2:19">
@@ -2297,14 +2289,13 @@
         <v>46</v>
       </c>
       <c r="F14" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>23</v>
       </c>
       <c r="H14" s="7">
-        <f>SUM(128,128,128,128)</f>
-        <v>512</v>
+        <v>256</v>
       </c>
       <c r="I14" s="8">
         <v>128</v>
@@ -2313,42 +2304,36 @@
         <v>24</v>
       </c>
       <c r="K14" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="N14" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>42</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
       <c r="R14" s="7"/>
-      <c r="S14" s="18" t="s">
-        <v>45</v>
-      </c>
+      <c r="S14" s="17"/>
     </row>
     <row r="15" spans="2:19">
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F15" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>23</v>
       </c>
       <c r="H15" s="7">
-        <v>256</v>
+        <v>512</v>
       </c>
       <c r="I15" s="8">
         <v>128</v>
@@ -2357,27 +2342,31 @@
         <v>24</v>
       </c>
       <c r="K15" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
+        <v>51</v>
+      </c>
+      <c r="N15" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>53</v>
+      </c>
       <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
       <c r="R15" s="7"/>
-      <c r="S15" s="18"/>
+      <c r="S15" s="17"/>
     </row>
     <row r="16" spans="2:19">
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F16" s="7">
         <v>1</v>
@@ -2386,7 +2375,7 @@
         <v>23</v>
       </c>
       <c r="H16" s="7">
-        <v>512</v>
+        <v>256</v>
       </c>
       <c r="I16" s="8">
         <v>128</v>
@@ -2395,99 +2384,91 @@
         <v>24</v>
       </c>
       <c r="K16" s="7">
-        <v>4</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="M16" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="N16" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>54</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
       <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
       <c r="R16" s="7"/>
-      <c r="S16" s="18"/>
+      <c r="S16" s="17"/>
     </row>
     <row r="17" spans="2:19">
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7" t="s">
+      <c r="B17" s="9"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="17"/>
+    </row>
+    <row r="18" spans="2:19">
+      <c r="B18" s="7"/>
+      <c r="C18" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="F17" s="7">
-        <v>1</v>
-      </c>
-      <c r="G17" s="7" t="s">
+      <c r="D18" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" s="7">
+        <v>4</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H17" s="7">
-        <v>256</v>
-      </c>
-      <c r="I17" s="8">
+      <c r="H18" s="7">
+        <f>SUM(128,128,128)</f>
+        <v>384</v>
+      </c>
+      <c r="I18" s="8">
         <v>128</v>
       </c>
-      <c r="J17" s="7" t="s">
+      <c r="J18" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K17" s="7">
-        <v>2</v>
-      </c>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="7"/>
-      <c r="R17" s="7"/>
-      <c r="S17" s="18"/>
-    </row>
-    <row r="18" spans="2:19">
-      <c r="B18" s="10"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="11"/>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="11"/>
-      <c r="R18" s="11"/>
-      <c r="S18" s="18"/>
+      <c r="K18" s="7">
+        <v>3</v>
+      </c>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="7"/>
+      <c r="S18" s="7"/>
     </row>
     <row r="19" spans="2:19">
       <c r="B19" s="7"/>
-      <c r="C19" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>21</v>
-      </c>
+      <c r="C19" s="7"/>
+      <c r="D19" s="12"/>
       <c r="E19" s="7" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F19" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H19" s="9">
-        <f>SUM(128,128,128)</f>
-        <v>384</v>
+      <c r="H19" s="8">
+        <v>256</v>
       </c>
       <c r="I19" s="8">
         <v>128</v>
@@ -2496,26 +2477,38 @@
         <v>24</v>
       </c>
       <c r="K19" s="7">
-        <v>3</v>
-      </c>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="M19" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="N19" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>59</v>
+      </c>
       <c r="P19" s="7"/>
       <c r="Q19" s="7"/>
-      <c r="R19" s="7"/>
-      <c r="S19" s="7"/>
+      <c r="R19" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="S19" s="7" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="20" spans="2:19">
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
-      <c r="D20" s="13"/>
+      <c r="D20" s="12"/>
       <c r="E20" s="7" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="F20" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>23</v>
@@ -2533,41 +2526,36 @@
         <v>2</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="M20" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="N20" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>60</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
       <c r="P20" s="7"/>
       <c r="Q20" s="7"/>
       <c r="R20" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="S20" s="7" t="s">
         <v>62</v>
       </c>
+      <c r="S20" s="7"/>
     </row>
     <row r="21" spans="2:19">
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
-      <c r="D21" s="13"/>
+      <c r="D21" s="12"/>
       <c r="E21" s="7" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="F21" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H21" s="8">
-        <v>256</v>
+      <c r="H21" s="7">
+        <f t="shared" ref="H21:H23" si="1">SUM(128,128,128,128,128,128)</f>
+        <v>768</v>
       </c>
       <c r="I21" s="8">
         <v>128</v>
@@ -2576,38 +2564,46 @@
         <v>24</v>
       </c>
       <c r="K21" s="7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="M21" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
-      <c r="P21" s="7"/>
-      <c r="Q21" s="7"/>
+        <v>64</v>
+      </c>
+      <c r="N21" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q21" s="7" t="s">
+        <v>68</v>
+      </c>
       <c r="R21" s="7" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="S21" s="7"/>
     </row>
     <row r="22" spans="2:19">
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
-      <c r="D22" s="13"/>
+      <c r="D22" s="12"/>
       <c r="E22" s="7" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F22" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>23</v>
       </c>
       <c r="H22" s="7">
-        <f>SUM(128,128,128,128,128,128)</f>
+        <f t="shared" si="1"/>
         <v>768</v>
       </c>
       <c r="I22" s="8">
@@ -2620,34 +2616,36 @@
         <v>6</v>
       </c>
       <c r="L22" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M22" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="M22" s="7" t="s">
+      <c r="N22" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="N22" s="7" t="s">
+      <c r="O22" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="O22" s="7" t="s">
+      <c r="P22" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="R22" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="S22" s="7"/>
+      <c r="S22" s="7" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="23" spans="2:19">
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="13"/>
       <c r="E23" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" s="7">
         <v>2</v>
@@ -2656,7 +2654,7 @@
         <v>23</v>
       </c>
       <c r="H23" s="7">
-        <f>SUM(128,128,128,128,128,128)</f>
+        <f t="shared" si="1"/>
         <v>768</v>
       </c>
       <c r="I23" s="8">
@@ -2669,121 +2667,104 @@
         <v>6</v>
       </c>
       <c r="L23" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M23" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="M23" s="7" t="s">
+      <c r="N23" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="N23" s="7" t="s">
+      <c r="O23" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="O23" s="7" t="s">
+      <c r="P23" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="R23" s="7" t="s">
         <v>71</v>
       </c>
       <c r="S23" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="2:19">
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F24" s="7">
-        <v>2</v>
-      </c>
-      <c r="G24" s="7" t="s">
+      <c r="B24" s="14"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="15"/>
+      <c r="O24" s="15"/>
+      <c r="P24" s="15"/>
+      <c r="Q24" s="15"/>
+      <c r="R24" s="15"/>
+      <c r="S24" s="17"/>
+    </row>
+    <row r="25" spans="2:19">
+      <c r="B25" s="7"/>
+      <c r="C25" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F25" s="7">
+        <v>4</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H24" s="7">
-        <f>SUM(128,128,128,128,128,128)</f>
-        <v>768</v>
-      </c>
-      <c r="I24" s="8">
+      <c r="H25" s="7">
+        <f>SUM(128,128,128)</f>
+        <v>384</v>
+      </c>
+      <c r="I25" s="8">
         <v>128</v>
       </c>
-      <c r="J24" s="7" t="s">
+      <c r="J25" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K24" s="7">
-        <v>6</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="M24" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="N24" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="R24" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="S24" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="2:19">
-      <c r="B25" s="15"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="16"/>
-      <c r="L25" s="16"/>
-      <c r="M25" s="16"/>
-      <c r="N25" s="16"/>
-      <c r="O25" s="16"/>
-      <c r="P25" s="16"/>
-      <c r="Q25" s="16"/>
-      <c r="R25" s="16"/>
-      <c r="S25" s="18"/>
+      <c r="K25" s="7">
+        <v>3</v>
+      </c>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="7"/>
+      <c r="R25" s="7"/>
+      <c r="S25" s="7"/>
     </row>
     <row r="26" spans="2:19">
       <c r="B26" s="7"/>
-      <c r="C26" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>74</v>
-      </c>
+      <c r="C26" s="7"/>
+      <c r="D26" s="12"/>
       <c r="E26" s="7" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F26" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H26" s="9">
-        <f>SUM(128,128,128)</f>
-        <v>384</v>
+      <c r="H26" s="7">
+        <v>256</v>
       </c>
       <c r="I26" s="8">
         <v>128</v>
@@ -2792,31 +2773,43 @@
         <v>24</v>
       </c>
       <c r="K26" s="7">
-        <v>3</v>
-      </c>
-      <c r="L26" s="7"/>
-      <c r="M26" s="7"/>
-      <c r="N26" s="7"/>
-      <c r="O26" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="M26" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="N26" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>59</v>
+      </c>
       <c r="P26" s="7"/>
       <c r="Q26" s="7"/>
-      <c r="R26" s="7"/>
-      <c r="S26" s="7"/>
+      <c r="R26" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="S26" s="7" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="27" spans="2:19">
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
-      <c r="D27" s="13"/>
+      <c r="D27" s="12"/>
       <c r="E27" s="7" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="F27" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G27" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H27" s="9">
+      <c r="H27" s="7">
         <v>256</v>
       </c>
       <c r="I27" s="8">
@@ -2829,41 +2822,36 @@
         <v>2</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="M27" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="N27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>60</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
       <c r="P27" s="7"/>
       <c r="Q27" s="7"/>
       <c r="R27" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="S27" s="7" t="s">
         <v>62</v>
       </c>
+      <c r="S27" s="7"/>
     </row>
     <row r="28" spans="2:19">
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
-      <c r="D28" s="13"/>
+      <c r="D28" s="12"/>
       <c r="E28" s="7" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="F28" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H28" s="9">
-        <v>256</v>
+      <c r="H28" s="7">
+        <f t="shared" ref="H28:H30" si="2">SUM(128,128,128,128)</f>
+        <v>512</v>
       </c>
       <c r="I28" s="8">
         <v>128</v>
@@ -2872,38 +2860,42 @@
         <v>24</v>
       </c>
       <c r="K28" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="M28" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="N28" s="7"/>
-      <c r="O28" s="7"/>
+        <v>76</v>
+      </c>
+      <c r="N28" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>78</v>
+      </c>
       <c r="P28" s="7"/>
       <c r="Q28" s="7"/>
       <c r="R28" s="7" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="S28" s="7"/>
     </row>
     <row r="29" spans="2:19">
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
-      <c r="D29" s="13"/>
+      <c r="D29" s="12"/>
       <c r="E29" s="7" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F29" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H29" s="9">
-        <f>SUM(128,128,128,128)</f>
+      <c r="H29" s="7">
+        <f t="shared" si="2"/>
         <v>512</v>
       </c>
       <c r="I29" s="8">
@@ -2916,21 +2908,21 @@
         <v>4</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="M29" s="7" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="N29" s="7" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P29" s="7"/>
       <c r="Q29" s="7"/>
       <c r="R29" s="7" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="S29" s="7"/>
     </row>
@@ -2939,7 +2931,7 @@
       <c r="C30" s="7"/>
       <c r="D30" s="13"/>
       <c r="E30" s="7" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="F30" s="7">
         <v>2</v>
@@ -2947,8 +2939,8 @@
       <c r="G30" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H30" s="9">
-        <f>SUM(128,128,128,128)</f>
+      <c r="H30" s="7">
+        <f t="shared" si="2"/>
         <v>512</v>
       </c>
       <c r="I30" s="8">
@@ -2961,109 +2953,98 @@
         <v>4</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="M30" s="7" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="N30" s="7" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="P30" s="7"/>
       <c r="Q30" s="7"/>
       <c r="R30" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="S30" s="7"/>
     </row>
     <row r="31" spans="2:19">
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="F31" s="7">
-        <v>2</v>
-      </c>
-      <c r="G31" s="7" t="s">
+      <c r="B31" s="14"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="15"/>
+      <c r="M31" s="15"/>
+      <c r="N31" s="15"/>
+      <c r="O31" s="15"/>
+      <c r="P31" s="15"/>
+      <c r="Q31" s="15"/>
+      <c r="R31" s="15"/>
+      <c r="S31" s="17"/>
+    </row>
+    <row r="32" spans="2:19">
+      <c r="B32" s="7"/>
+      <c r="C32" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F32" s="7">
+        <v>4</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H31" s="9">
-        <f>SUM(128,128,128,128)</f>
-        <v>512</v>
-      </c>
-      <c r="I31" s="8">
+      <c r="H32" s="7">
+        <f t="shared" ref="H32:H37" si="3">SUM(128,128,128)</f>
+        <v>384</v>
+      </c>
+      <c r="I32" s="8">
         <v>128</v>
       </c>
-      <c r="J31" s="7" t="s">
+      <c r="J32" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K31" s="7">
-        <v>4</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="M31" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="N31" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="P31" s="7"/>
-      <c r="Q31" s="7"/>
-      <c r="R31" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="S31" s="7"/>
-    </row>
-    <row r="32" spans="2:19">
-      <c r="B32" s="15"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="16"/>
-      <c r="J32" s="16"/>
-      <c r="K32" s="16"/>
-      <c r="L32" s="16"/>
-      <c r="M32" s="16"/>
-      <c r="N32" s="16"/>
-      <c r="O32" s="16"/>
-      <c r="P32" s="16"/>
-      <c r="Q32" s="16"/>
-      <c r="R32" s="16"/>
-      <c r="S32" s="18"/>
+      <c r="K32" s="7">
+        <v>3</v>
+      </c>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="7"/>
+      <c r="P32" s="7"/>
+      <c r="Q32" s="7"/>
+      <c r="R32" s="7"/>
+      <c r="S32" s="7"/>
     </row>
     <row r="33" spans="2:19">
       <c r="B33" s="7"/>
-      <c r="C33" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="D33" s="12" t="s">
-        <v>21</v>
-      </c>
+      <c r="C33" s="7"/>
+      <c r="D33" s="12"/>
       <c r="E33" s="7" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F33" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G33" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H33" s="9">
-        <f>SUM(128,128,128)</f>
-        <v>384</v>
+      <c r="H33" s="7">
+        <v>256</v>
       </c>
       <c r="I33" s="8">
         <v>128</v>
@@ -3072,32 +3053,38 @@
         <v>24</v>
       </c>
       <c r="K33" s="7">
-        <v>3</v>
-      </c>
-      <c r="L33" s="7"/>
-      <c r="M33" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="M33" s="7" t="s">
+        <v>90</v>
+      </c>
       <c r="N33" s="7"/>
       <c r="O33" s="7"/>
       <c r="P33" s="7"/>
       <c r="Q33" s="7"/>
-      <c r="R33" s="7"/>
+      <c r="R33" s="7" t="s">
+        <v>91</v>
+      </c>
       <c r="S33" s="7"/>
     </row>
     <row r="34" spans="2:19">
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
-      <c r="D34" s="13"/>
+      <c r="D34" s="12"/>
       <c r="E34" s="7" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="F34" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H34" s="9">
-        <v>256</v>
+      <c r="H34" s="7">
+        <v>128</v>
       </c>
       <c r="I34" s="8">
         <v>128</v>
@@ -3106,38 +3093,37 @@
         <v>24</v>
       </c>
       <c r="K34" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="M34" s="7" t="s">
-        <v>91</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="M34" s="7"/>
       <c r="N34" s="7"/>
-      <c r="O34" s="7"/>
+      <c r="O34" s="11"/>
       <c r="P34" s="7"/>
       <c r="Q34" s="7"/>
       <c r="R34" s="7" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="S34" s="7"/>
     </row>
     <row r="35" spans="2:19">
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
-      <c r="D35" s="13"/>
+      <c r="D35" s="12"/>
       <c r="E35" s="7" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="F35" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G35" s="7" t="s">
         <v>23</v>
       </c>
       <c r="H35" s="7">
-        <v>128</v>
+        <f t="shared" si="3"/>
+        <v>384</v>
       </c>
       <c r="I35" s="8">
         <v>128</v>
@@ -3146,36 +3132,40 @@
         <v>24</v>
       </c>
       <c r="K35" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="M35" s="7"/>
-      <c r="N35" s="7"/>
-      <c r="O35" s="12"/>
-      <c r="P35" s="7"/>
+        <v>31</v>
+      </c>
+      <c r="M35" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="N35" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="O35" s="7"/>
+      <c r="P35" s="17"/>
       <c r="Q35" s="7"/>
       <c r="R35" s="7" t="s">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="S35" s="7"/>
     </row>
     <row r="36" spans="2:19">
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
-      <c r="D36" s="13"/>
+      <c r="D36" s="12"/>
       <c r="E36" s="7" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F36" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G36" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H36" s="9">
-        <f>SUM(128,128,128)</f>
+      <c r="H36" s="7">
+        <f t="shared" si="3"/>
         <v>384</v>
       </c>
       <c r="I36" s="8">
@@ -3188,28 +3178,30 @@
         <v>3</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M36" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="N36" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="N36" s="15" t="s">
-        <v>94</v>
-      </c>
       <c r="O36" s="7"/>
-      <c r="P36" s="18"/>
+      <c r="P36" s="17"/>
       <c r="Q36" s="7"/>
       <c r="R36" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="S36" s="7"/>
+        <v>94</v>
+      </c>
+      <c r="S36" s="7" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="37" spans="2:19">
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
       <c r="D37" s="13"/>
       <c r="E37" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" s="7">
         <v>2</v>
@@ -3217,8 +3209,8 @@
       <c r="G37" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H37" s="9">
-        <f>SUM(128,128,128)</f>
+      <c r="H37" s="7">
+        <f t="shared" si="3"/>
         <v>384</v>
       </c>
       <c r="I37" s="8">
@@ -3231,107 +3223,98 @@
         <v>3</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M37" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="N37" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="N37" s="15" t="s">
-        <v>94</v>
-      </c>
       <c r="O37" s="7"/>
-      <c r="P37" s="18"/>
+      <c r="P37" s="17"/>
       <c r="Q37" s="7"/>
       <c r="R37" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="S37" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38" spans="2:19">
+      <c r="B38" s="14"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="15"/>
+      <c r="K38" s="15"/>
+      <c r="L38" s="15"/>
+      <c r="M38" s="15"/>
+      <c r="N38" s="15"/>
+      <c r="O38" s="10"/>
+      <c r="P38" s="15"/>
+      <c r="Q38" s="15"/>
+      <c r="R38" s="15"/>
+      <c r="S38" s="17"/>
+    </row>
+    <row r="39" spans="2:19">
+      <c r="B39" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="S37" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="38" spans="2:19">
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F38" s="7">
+      <c r="C39" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E39" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="F39" s="7">
+        <v>5</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="H39" s="7">
+        <v>64</v>
+      </c>
+      <c r="I39" s="7">
+        <v>64</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K39" s="7">
+        <v>1</v>
+      </c>
+      <c r="L39" s="7"/>
+      <c r="M39" s="7"/>
+      <c r="N39" s="7"/>
+      <c r="O39" s="7"/>
+      <c r="P39" s="7"/>
+      <c r="Q39" s="7"/>
+      <c r="R39" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="S39" s="7"/>
+    </row>
+    <row r="40" spans="2:19">
+      <c r="B40" s="7"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="F40" s="7">
         <v>2</v>
       </c>
-      <c r="G38" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H38" s="9">
-        <f>SUM(128,128,128)</f>
-        <v>384</v>
-      </c>
-      <c r="I38" s="8">
-        <v>128</v>
-      </c>
-      <c r="J38" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="K38" s="7">
-        <v>3</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="M38" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="N38" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="O38" s="7"/>
-      <c r="P38" s="18"/>
-      <c r="Q38" s="7"/>
-      <c r="R38" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="S38" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="39" spans="2:19">
-      <c r="B39" s="15"/>
-      <c r="C39" s="16"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="16"/>
-      <c r="G39" s="16"/>
-      <c r="H39" s="16"/>
-      <c r="I39" s="16"/>
-      <c r="J39" s="16"/>
-      <c r="K39" s="16"/>
-      <c r="L39" s="16"/>
-      <c r="M39" s="16"/>
-      <c r="N39" s="16"/>
-      <c r="O39" s="11"/>
-      <c r="P39" s="16"/>
-      <c r="Q39" s="16"/>
-      <c r="R39" s="16"/>
-      <c r="S39" s="18"/>
-    </row>
-    <row r="40" spans="2:19">
-      <c r="B40" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="C40" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="E40" s="18" t="s">
+      <c r="G40" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="F40" s="7">
-        <v>5</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H40" s="7">
         <v>64</v>
@@ -3340,7 +3323,7 @@
         <v>64</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K40" s="7">
         <v>1</v>
@@ -3352,22 +3335,22 @@
       <c r="P40" s="7"/>
       <c r="Q40" s="7"/>
       <c r="R40" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="S40" s="7"/>
     </row>
     <row r="41" spans="2:19">
       <c r="B41" s="7"/>
-      <c r="C41" s="15"/>
+      <c r="C41" s="14"/>
       <c r="D41" s="7"/>
-      <c r="E41" s="18" t="s">
-        <v>103</v>
+      <c r="E41" s="17" t="s">
+        <v>104</v>
       </c>
       <c r="F41" s="7">
         <v>2</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H41" s="7">
         <v>64</v>
@@ -3376,7 +3359,7 @@
         <v>64</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K41" s="7">
         <v>1</v>
@@ -3388,178 +3371,164 @@
       <c r="P41" s="7"/>
       <c r="Q41" s="7"/>
       <c r="R41" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="S41" s="7"/>
     </row>
     <row r="42" spans="2:19">
       <c r="B42" s="7"/>
-      <c r="C42" s="15"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="F42" s="7">
-        <v>2</v>
-      </c>
-      <c r="G42" s="7" t="s">
+      <c r="C42" s="7"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="H42" s="7">
-        <v>64</v>
-      </c>
-      <c r="I42" s="7">
-        <v>64</v>
-      </c>
-      <c r="J42" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="K42" s="7">
-        <v>1</v>
-      </c>
+      <c r="K42" s="7"/>
       <c r="L42" s="7"/>
       <c r="M42" s="7"/>
       <c r="N42" s="7"/>
       <c r="O42" s="7"/>
       <c r="P42" s="7"/>
       <c r="Q42" s="7"/>
-      <c r="R42" s="7" t="s">
-        <v>106</v>
-      </c>
+      <c r="R42" s="7"/>
       <c r="S42" s="7"/>
     </row>
     <row r="43" spans="2:19">
       <c r="B43" s="7"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="19"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="7"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="E43" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="F43" s="7">
+        <v>2</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="H43" s="7">
+        <f>SUM(128,128,128)</f>
+        <v>384</v>
+      </c>
+      <c r="I43" s="7">
+        <v>64</v>
+      </c>
       <c r="J43" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="K43" s="7"/>
+        <v>100</v>
+      </c>
+      <c r="K43" s="7">
+        <v>3</v>
+      </c>
       <c r="L43" s="7"/>
       <c r="M43" s="7"/>
       <c r="N43" s="7"/>
       <c r="O43" s="7"/>
       <c r="P43" s="7"/>
       <c r="Q43" s="7"/>
-      <c r="R43" s="7"/>
-      <c r="S43" s="7"/>
+      <c r="R43" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="S43" s="7" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="44" spans="2:19">
-      <c r="B44" s="7"/>
+      <c r="B44" s="14"/>
       <c r="C44" s="15"/>
-      <c r="D44" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="E44" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="F44" s="7">
-        <v>2</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="H44" s="9">
-        <f>SUM(128,128,128)</f>
-        <v>384</v>
-      </c>
-      <c r="I44" s="9">
-        <v>64</v>
-      </c>
-      <c r="J44" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="K44" s="7">
+      <c r="D44" s="10"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="15"/>
+      <c r="H44" s="15"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="15"/>
+      <c r="K44" s="15"/>
+      <c r="L44" s="15"/>
+      <c r="M44" s="15"/>
+      <c r="N44" s="15"/>
+      <c r="O44" s="15"/>
+      <c r="P44" s="15"/>
+      <c r="Q44" s="15"/>
+      <c r="R44" s="15"/>
+      <c r="S44" s="17"/>
+    </row>
+    <row r="45" spans="2:19">
+      <c r="B45" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F45" s="7">
         <v>3</v>
       </c>
-      <c r="L44" s="7"/>
-      <c r="M44" s="7"/>
-      <c r="N44" s="7"/>
-      <c r="O44" s="7"/>
-      <c r="P44" s="7"/>
-      <c r="Q44" s="7"/>
-      <c r="R44" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="S44" s="7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="45" spans="2:19">
-      <c r="B45" s="15"/>
-      <c r="C45" s="16"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="16"/>
-      <c r="F45" s="16"/>
-      <c r="G45" s="16"/>
-      <c r="H45" s="16"/>
-      <c r="I45" s="16"/>
-      <c r="J45" s="16"/>
-      <c r="K45" s="16"/>
-      <c r="L45" s="16"/>
-      <c r="M45" s="16"/>
-      <c r="N45" s="16"/>
-      <c r="O45" s="16"/>
-      <c r="P45" s="16"/>
-      <c r="Q45" s="16"/>
-      <c r="R45" s="16"/>
-      <c r="S45" s="18"/>
-    </row>
-    <row r="46" spans="2:19">
-      <c r="B46" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="D46" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="E46" s="7" t="s">
+      <c r="G45" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="F46" s="7">
-        <v>3</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="H46" s="9">
+      <c r="H45" s="7">
         <f>SUM(384,384,384,384)</f>
         <v>1536</v>
       </c>
-      <c r="I46" s="9">
+      <c r="I45" s="7">
         <v>384</v>
       </c>
-      <c r="J46" s="7" t="s">
+      <c r="J45" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="K45" s="7">
+        <v>4</v>
+      </c>
+      <c r="L45" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="K46" s="7">
-        <v>4</v>
-      </c>
-      <c r="L46" s="7" t="s">
+      <c r="M45" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="M46" s="7" t="s">
+      <c r="N45" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="N46" s="7" t="s">
+      <c r="O45" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="O46" s="7" t="s">
+      <c r="P45" s="7"/>
+      <c r="Q45" s="7"/>
+      <c r="R45" s="7" t="s">
         <v>118</v>
       </c>
+      <c r="S45" s="7"/>
+    </row>
+    <row r="46" spans="2:19">
+      <c r="B46" s="7"/>
+      <c r="C46" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="D46" s="12"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="7"/>
+      <c r="L46" s="7"/>
+      <c r="M46" s="7"/>
+      <c r="N46" s="7"/>
+      <c r="O46" s="7"/>
       <c r="P46" s="7"/>
       <c r="Q46" s="7"/>
-      <c r="R46" s="7" t="s">
-        <v>119</v>
-      </c>
+      <c r="R46" s="7"/>
       <c r="S46" s="7"/>
     </row>
     <row r="47" spans="2:19">
@@ -3567,132 +3536,152 @@
       <c r="C47" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="D47" s="13"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
-      <c r="I47" s="7"/>
-      <c r="J47" s="7"/>
-      <c r="K47" s="7"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F47" s="7">
+        <v>3</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="H47" s="7">
+        <f>SUM(128,128,128,128)</f>
+        <v>512</v>
+      </c>
+      <c r="I47" s="7">
+        <v>512</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="K47" s="7">
+        <v>4</v>
+      </c>
       <c r="L47" s="7"/>
       <c r="M47" s="7"/>
       <c r="N47" s="7"/>
       <c r="O47" s="7"/>
       <c r="P47" s="7"/>
       <c r="Q47" s="7"/>
-      <c r="R47" s="7"/>
+      <c r="R47" s="7" t="s">
+        <v>123</v>
+      </c>
       <c r="S47" s="7"/>
     </row>
     <row r="48" spans="2:19">
       <c r="B48" s="7"/>
-      <c r="C48" s="7" t="s">
-        <v>121</v>
-      </c>
+      <c r="C48" s="7"/>
       <c r="D48" s="13"/>
-      <c r="E48" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="F48" s="7">
-        <v>3</v>
-      </c>
-      <c r="G48" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="H48" s="9">
-        <f>SUM(128,128,128,128)</f>
-        <v>512</v>
-      </c>
-      <c r="I48" s="9">
-        <v>512</v>
-      </c>
-      <c r="J48" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="K48" s="7">
-        <v>4</v>
-      </c>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="7"/>
+      <c r="K48" s="7"/>
       <c r="L48" s="7"/>
       <c r="M48" s="7"/>
       <c r="N48" s="7"/>
       <c r="O48" s="7"/>
       <c r="P48" s="7"/>
       <c r="Q48" s="7"/>
-      <c r="R48" s="7" t="s">
+      <c r="R48" s="7"/>
+      <c r="S48" s="7"/>
+    </row>
+    <row r="49" spans="2:19">
+      <c r="B49" s="14"/>
+      <c r="C49" s="15"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="15"/>
+      <c r="G49" s="15"/>
+      <c r="H49" s="15"/>
+      <c r="I49" s="15"/>
+      <c r="J49" s="15"/>
+      <c r="K49" s="15"/>
+      <c r="L49" s="15"/>
+      <c r="M49" s="15"/>
+      <c r="N49" s="15"/>
+      <c r="O49" s="15"/>
+      <c r="P49" s="15"/>
+      <c r="Q49" s="15"/>
+      <c r="R49" s="15"/>
+      <c r="S49" s="17"/>
+    </row>
+    <row r="50" spans="2:19">
+      <c r="B50" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="S48" s="7"/>
-    </row>
-    <row r="49" spans="2:19">
-      <c r="B49" s="7"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="7"/>
-      <c r="H49" s="7"/>
-      <c r="I49" s="7"/>
-      <c r="J49" s="7"/>
-      <c r="K49" s="7"/>
-      <c r="L49" s="7"/>
-      <c r="M49" s="7"/>
-      <c r="N49" s="7"/>
-      <c r="O49" s="7"/>
-      <c r="P49" s="7"/>
-      <c r="Q49" s="7"/>
-      <c r="R49" s="7"/>
-      <c r="S49" s="7"/>
-    </row>
-    <row r="50" spans="2:19">
-      <c r="B50" s="15"/>
-      <c r="C50" s="16"/>
-      <c r="D50" s="16"/>
-      <c r="E50" s="16"/>
-      <c r="F50" s="16"/>
-      <c r="G50" s="16"/>
-      <c r="H50" s="16"/>
-      <c r="I50" s="16"/>
-      <c r="J50" s="16"/>
-      <c r="K50" s="16"/>
-      <c r="L50" s="16"/>
-      <c r="M50" s="16"/>
-      <c r="N50" s="16"/>
-      <c r="O50" s="16"/>
-      <c r="P50" s="16"/>
-      <c r="Q50" s="16"/>
-      <c r="R50" s="16"/>
-      <c r="S50" s="18"/>
+      <c r="C50" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F50" s="7">
+        <v>1</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="H50" s="7">
+        <v>64</v>
+      </c>
+      <c r="I50" s="7">
+        <v>64</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K50" s="7">
+        <v>1</v>
+      </c>
+      <c r="L50" s="7"/>
+      <c r="M50" s="7"/>
+      <c r="N50" s="7"/>
+      <c r="O50" s="7"/>
+      <c r="P50" s="7"/>
+      <c r="Q50" s="7"/>
+      <c r="R50" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="S50" s="7" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="51" spans="2:19">
-      <c r="B51" s="7" t="s">
-        <v>125</v>
-      </c>
+      <c r="B51" s="7"/>
       <c r="C51" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>21</v>
+        <v>129</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>73</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="F51" s="7">
         <v>1</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="H51" s="7">
         <v>64</v>
       </c>
       <c r="I51" s="7">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="J51" s="7" t="s">
         <v>24</v>
       </c>
       <c r="K51" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L51" s="7"/>
       <c r="M51" s="7"/>
@@ -3701,40 +3690,38 @@
       <c r="P51" s="7"/>
       <c r="Q51" s="7"/>
       <c r="R51" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="S51" s="7" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
     </row>
     <row r="52" spans="2:19">
       <c r="B52" s="7"/>
       <c r="C52" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="D52" s="12" t="s">
-        <v>74</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="D52" s="12"/>
       <c r="E52" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="F52" s="7">
         <v>1</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="H52" s="7">
-        <v>64</v>
+        <v>768</v>
       </c>
       <c r="I52" s="7">
-        <v>32</v>
+        <v>192</v>
       </c>
       <c r="J52" s="7" t="s">
         <v>24</v>
       </c>
       <c r="K52" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L52" s="7"/>
       <c r="M52" s="7"/>
@@ -3743,38 +3730,34 @@
       <c r="P52" s="7"/>
       <c r="Q52" s="7"/>
       <c r="R52" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="S52" s="7" t="s">
-        <v>109</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="S52" s="7"/>
     </row>
     <row r="53" spans="2:19">
       <c r="B53" s="7"/>
-      <c r="C53" s="7" t="s">
-        <v>134</v>
-      </c>
+      <c r="C53" s="7"/>
       <c r="D53" s="13"/>
       <c r="E53" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F53" s="7">
         <v>1</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="H53" s="9">
-        <v>768</v>
-      </c>
-      <c r="I53" s="9">
-        <v>192</v>
+        <v>99</v>
+      </c>
+      <c r="H53" s="7">
+        <v>320</v>
+      </c>
+      <c r="I53" s="7">
+        <v>64</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>24</v>
+        <v>138</v>
       </c>
       <c r="K53" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L53" s="7"/>
       <c r="M53" s="7"/>
@@ -3782,83 +3765,83 @@
       <c r="O53" s="7"/>
       <c r="P53" s="7"/>
       <c r="Q53" s="7"/>
-      <c r="R53" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="S53" s="7"/>
+      <c r="R53" s="7"/>
+      <c r="S53" s="7" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="54" spans="2:19">
-      <c r="B54" s="7"/>
-      <c r="C54" s="7"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="F54" s="7">
+      <c r="B54" s="14"/>
+      <c r="C54" s="15"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="15"/>
+      <c r="G54" s="15"/>
+      <c r="H54" s="15"/>
+      <c r="I54" s="15"/>
+      <c r="J54" s="15"/>
+      <c r="K54" s="15"/>
+      <c r="L54" s="15"/>
+      <c r="M54" s="15"/>
+      <c r="N54" s="15"/>
+      <c r="O54" s="15"/>
+      <c r="P54" s="15"/>
+      <c r="Q54" s="15"/>
+      <c r="R54" s="15"/>
+      <c r="S54" s="17"/>
+    </row>
+    <row r="55" spans="2:19">
+      <c r="B55" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F55" s="7">
         <v>1</v>
       </c>
-      <c r="G54" s="7" t="s">
+      <c r="G55" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="H55" s="7">
+        <v>1440</v>
+      </c>
+      <c r="I55" s="7">
+        <v>810</v>
+      </c>
+      <c r="J55" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="H54" s="7">
-        <v>320</v>
-      </c>
-      <c r="I54" s="7">
-        <v>64</v>
-      </c>
-      <c r="J54" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="K54" s="7">
-        <v>5</v>
-      </c>
-      <c r="L54" s="7"/>
-      <c r="M54" s="7"/>
-      <c r="N54" s="7"/>
-      <c r="O54" s="7"/>
-      <c r="P54" s="7"/>
-      <c r="Q54" s="7"/>
-      <c r="R54" s="7"/>
-      <c r="S54" s="7" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="55" spans="2:19">
-      <c r="B55" s="15"/>
-      <c r="C55" s="16"/>
-      <c r="D55" s="16"/>
-      <c r="E55" s="16"/>
-      <c r="F55" s="16"/>
-      <c r="G55" s="16"/>
-      <c r="H55" s="16"/>
-      <c r="I55" s="16"/>
-      <c r="J55" s="16"/>
-      <c r="K55" s="16"/>
-      <c r="L55" s="16"/>
-      <c r="M55" s="16"/>
-      <c r="N55" s="16"/>
-      <c r="O55" s="16"/>
-      <c r="P55" s="16"/>
-      <c r="Q55" s="16"/>
-      <c r="R55" s="16"/>
-      <c r="S55" s="18"/>
+      <c r="K55" s="7">
+        <v>1</v>
+      </c>
+      <c r="L55" s="7"/>
+      <c r="M55" s="7"/>
+      <c r="N55" s="7"/>
+      <c r="O55" s="7"/>
+      <c r="P55" s="7"/>
+      <c r="Q55" s="7"/>
+      <c r="R55" s="7"/>
+      <c r="S55" s="7"/>
     </row>
     <row r="56" spans="2:19">
-      <c r="B56" s="7" t="s">
-        <v>141</v>
-      </c>
+      <c r="B56" s="7"/>
       <c r="C56" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D56" s="7"/>
       <c r="E56" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F56" s="7">
         <v>1</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H56" s="7">
         <v>1440</v>
@@ -3867,7 +3850,7 @@
         <v>810</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K56" s="7">
         <v>1</v>
@@ -3882,88 +3865,90 @@
       <c r="S56" s="7"/>
     </row>
     <row r="57" spans="2:19">
-      <c r="B57" s="7"/>
-      <c r="C57" s="7" t="s">
+      <c r="B57" s="14"/>
+      <c r="C57" s="15"/>
+      <c r="D57" s="15"/>
+      <c r="E57" s="15"/>
+      <c r="F57" s="15"/>
+      <c r="G57" s="15"/>
+      <c r="H57" s="15"/>
+      <c r="I57" s="15"/>
+      <c r="J57" s="15"/>
+      <c r="K57" s="15"/>
+      <c r="L57" s="15"/>
+      <c r="M57" s="15"/>
+      <c r="N57" s="15"/>
+      <c r="O57" s="15"/>
+      <c r="P57" s="15"/>
+      <c r="Q57" s="15"/>
+      <c r="R57" s="15"/>
+      <c r="S57" s="17"/>
+    </row>
+    <row r="58" spans="2:19">
+      <c r="B58" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="D57" s="7"/>
-      <c r="E57" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="F57" s="7">
+      <c r="C58" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="D58" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F58" s="7">
         <v>1</v>
       </c>
-      <c r="G57" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="H57" s="7">
-        <v>1440</v>
-      </c>
-      <c r="I57" s="7">
-        <v>810</v>
-      </c>
-      <c r="J57" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="K57" s="7">
+      <c r="G58" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="H58" s="7">
+        <v>2880</v>
+      </c>
+      <c r="I58" s="7">
+        <v>1620</v>
+      </c>
+      <c r="J58" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K58" s="7">
         <v>1</v>
       </c>
-      <c r="L57" s="7"/>
-      <c r="M57" s="7"/>
-      <c r="N57" s="7"/>
-      <c r="O57" s="7"/>
-      <c r="P57" s="7"/>
-      <c r="Q57" s="7"/>
-      <c r="R57" s="7"/>
-      <c r="S57" s="7"/>
-    </row>
-    <row r="58" spans="2:19">
-      <c r="B58" s="15"/>
-      <c r="C58" s="16"/>
-      <c r="D58" s="16"/>
-      <c r="E58" s="16"/>
-      <c r="F58" s="16"/>
-      <c r="G58" s="16"/>
-      <c r="H58" s="16"/>
-      <c r="I58" s="16"/>
-      <c r="J58" s="16"/>
-      <c r="K58" s="16"/>
-      <c r="L58" s="16"/>
-      <c r="M58" s="16"/>
-      <c r="N58" s="16"/>
-      <c r="O58" s="16"/>
-      <c r="P58" s="16"/>
-      <c r="Q58" s="16"/>
-      <c r="R58" s="16"/>
-      <c r="S58" s="18"/>
+      <c r="L58" s="7"/>
+      <c r="M58" s="7"/>
+      <c r="N58" s="7"/>
+      <c r="O58" s="7"/>
+      <c r="P58" s="7"/>
+      <c r="Q58" s="7"/>
+      <c r="R58" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="S58" s="7"/>
     </row>
     <row r="59" spans="2:19">
-      <c r="B59" s="7" t="s">
-        <v>146</v>
-      </c>
+      <c r="B59" s="7"/>
       <c r="C59" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="D59" s="12" t="s">
-        <v>21</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="D59" s="12"/>
       <c r="E59" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="F59" s="7">
         <v>1</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="H59" s="7">
         <v>2880</v>
       </c>
       <c r="I59" s="7">
-        <v>1620</v>
+        <v>2430</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K59" s="7">
         <v>1</v>
@@ -3975,24 +3960,22 @@
       <c r="P59" s="7"/>
       <c r="Q59" s="7"/>
       <c r="R59" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="S59" s="7"/>
     </row>
     <row r="60" spans="2:19">
       <c r="B60" s="7"/>
-      <c r="C60" s="7" t="s">
-        <v>151</v>
-      </c>
+      <c r="C60" s="7"/>
       <c r="D60" s="13"/>
       <c r="E60" s="7" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="F60" s="7">
         <v>1</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H60" s="7">
         <v>2880</v>
@@ -4001,7 +3984,7 @@
         <v>2430</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K60" s="7">
         <v>1</v>
@@ -4015,84 +3998,88 @@
       <c r="R60" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="S60" s="7"/>
+      <c r="S60" s="7" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="61" spans="2:19">
-      <c r="B61" s="7"/>
-      <c r="C61" s="7"/>
-      <c r="D61" s="14"/>
-      <c r="E61" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="F61" s="7">
+      <c r="B61" s="14"/>
+      <c r="C61" s="15"/>
+      <c r="D61" s="15"/>
+      <c r="E61" s="15"/>
+      <c r="F61" s="15"/>
+      <c r="G61" s="15"/>
+      <c r="H61" s="15"/>
+      <c r="I61" s="15"/>
+      <c r="J61" s="15"/>
+      <c r="K61" s="15"/>
+      <c r="L61" s="15"/>
+      <c r="M61" s="15"/>
+      <c r="N61" s="15"/>
+      <c r="O61" s="15"/>
+      <c r="P61" s="15"/>
+      <c r="Q61" s="15"/>
+      <c r="R61" s="15"/>
+      <c r="S61" s="17"/>
+    </row>
+    <row r="62" spans="2:19">
+      <c r="B62" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="D62" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F62" s="7">
+        <v>2</v>
+      </c>
+      <c r="G62" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="H62" s="7">
+        <v>330</v>
+      </c>
+      <c r="I62" s="7">
+        <v>30</v>
+      </c>
+      <c r="J62" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K62" s="7">
         <v>1</v>
       </c>
-      <c r="G61" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="H61" s="7">
-        <v>2880</v>
-      </c>
-      <c r="I61" s="7">
-        <v>2430</v>
-      </c>
-      <c r="J61" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="K61" s="7">
-        <v>1</v>
-      </c>
-      <c r="L61" s="7"/>
-      <c r="M61" s="7"/>
-      <c r="N61" s="7"/>
-      <c r="O61" s="7"/>
-      <c r="P61" s="7"/>
-      <c r="Q61" s="7"/>
-      <c r="R61" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="S61" s="7" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="62" spans="2:19">
-      <c r="B62" s="15"/>
-      <c r="C62" s="16"/>
-      <c r="D62" s="16"/>
-      <c r="E62" s="16"/>
-      <c r="F62" s="16"/>
-      <c r="G62" s="16"/>
-      <c r="H62" s="16"/>
-      <c r="I62" s="16"/>
-      <c r="J62" s="16"/>
-      <c r="K62" s="16"/>
-      <c r="L62" s="16"/>
-      <c r="M62" s="16"/>
-      <c r="N62" s="16"/>
-      <c r="O62" s="16"/>
-      <c r="P62" s="16"/>
-      <c r="Q62" s="16"/>
-      <c r="R62" s="16"/>
-      <c r="S62" s="18"/>
+      <c r="L62" s="7"/>
+      <c r="M62" s="7"/>
+      <c r="N62" s="7"/>
+      <c r="O62" s="7"/>
+      <c r="P62" s="7"/>
+      <c r="Q62" s="7"/>
+      <c r="R62" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="S62" s="11" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="63" spans="2:19">
-      <c r="B63" s="7" t="s">
-        <v>157</v>
-      </c>
+      <c r="B63" s="7"/>
       <c r="C63" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="D63" s="12"/>
+      <c r="E63" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="D63" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="E63" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="F63" s="7">
         <v>2</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H63" s="7">
         <v>330</v>
@@ -4101,7 +4088,7 @@
         <v>30</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K63" s="7">
         <v>1</v>
@@ -4113,35 +4100,27 @@
       <c r="P63" s="7"/>
       <c r="Q63" s="7"/>
       <c r="R63" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="S63" s="12" t="s">
-        <v>162</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="S63" s="13"/>
     </row>
     <row r="64" spans="2:19">
       <c r="B64" s="7"/>
       <c r="C64" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="D64" s="13"/>
+        <v>164</v>
+      </c>
+      <c r="D64" s="12"/>
       <c r="E64" s="7" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="F64" s="7">
-        <v>2</v>
-      </c>
-      <c r="G64" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="H64" s="7">
-        <v>330</v>
-      </c>
-      <c r="I64" s="7">
-        <v>30</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G64" s="7"/>
+      <c r="H64" s="7"/>
+      <c r="I64" s="7"/>
       <c r="J64" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K64" s="7">
         <v>1</v>
@@ -4153,27 +4132,33 @@
       <c r="P64" s="7"/>
       <c r="Q64" s="7"/>
       <c r="R64" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="S64" s="14"/>
+        <v>166</v>
+      </c>
+      <c r="S64" s="13"/>
     </row>
     <row r="65" spans="2:19">
       <c r="B65" s="7"/>
       <c r="C65" s="7" t="s">
-        <v>165</v>
+        <v>120</v>
       </c>
       <c r="D65" s="13"/>
       <c r="E65" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F65" s="7">
-        <v>1</v>
-      </c>
-      <c r="G65" s="7"/>
-      <c r="H65" s="7"/>
-      <c r="I65" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="G65" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="H65" s="7">
+        <v>64</v>
+      </c>
+      <c r="I65" s="7">
+        <v>64</v>
+      </c>
       <c r="J65" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K65" s="7">
         <v>1</v>
@@ -4185,71 +4170,33 @@
       <c r="P65" s="7"/>
       <c r="Q65" s="7"/>
       <c r="R65" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="S65" s="14"/>
-    </row>
-    <row r="66" spans="2:19">
-      <c r="B66" s="7"/>
-      <c r="C66" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="D66" s="14"/>
-      <c r="E66" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="F66" s="7">
-        <v>3</v>
-      </c>
-      <c r="G66" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="H66" s="7">
-        <v>64</v>
-      </c>
-      <c r="I66" s="7">
-        <v>64</v>
-      </c>
-      <c r="J66" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="K66" s="7">
-        <v>1</v>
-      </c>
-      <c r="L66" s="7"/>
-      <c r="M66" s="7"/>
-      <c r="N66" s="7"/>
-      <c r="O66" s="7"/>
-      <c r="P66" s="7"/>
-      <c r="Q66" s="7"/>
-      <c r="R66" s="7" t="s">
+      <c r="S65" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="S66" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B18:S18"/>
-    <mergeCell ref="B25:S25"/>
-    <mergeCell ref="B32:S32"/>
-    <mergeCell ref="B39:S39"/>
-    <mergeCell ref="B45:S45"/>
-    <mergeCell ref="B50:S50"/>
-    <mergeCell ref="B55:S55"/>
-    <mergeCell ref="B58:S58"/>
-    <mergeCell ref="B62:S62"/>
-    <mergeCell ref="D5:D17"/>
-    <mergeCell ref="D19:D24"/>
-    <mergeCell ref="D26:D31"/>
-    <mergeCell ref="D33:D38"/>
-    <mergeCell ref="D40:D42"/>
-    <mergeCell ref="D46:D49"/>
-    <mergeCell ref="D52:D54"/>
-    <mergeCell ref="D59:D61"/>
-    <mergeCell ref="D63:D66"/>
-    <mergeCell ref="S63:S64"/>
+    <mergeCell ref="B17:S17"/>
+    <mergeCell ref="B24:S24"/>
+    <mergeCell ref="B31:S31"/>
+    <mergeCell ref="B38:S38"/>
+    <mergeCell ref="B44:S44"/>
+    <mergeCell ref="B49:S49"/>
+    <mergeCell ref="B54:S54"/>
+    <mergeCell ref="B57:S57"/>
+    <mergeCell ref="B61:S61"/>
+    <mergeCell ref="D5:D16"/>
+    <mergeCell ref="D18:D23"/>
+    <mergeCell ref="D25:D30"/>
+    <mergeCell ref="D32:D37"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="D45:D48"/>
+    <mergeCell ref="D51:D53"/>
+    <mergeCell ref="D58:D60"/>
+    <mergeCell ref="D62:D65"/>
+    <mergeCell ref="S62:S63"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -4270,62 +4217,62 @@
   <sheetData>
     <row r="2" customHeight="1" spans="2:2">
       <c r="B2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:2">
       <c r="B3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="2:2">
       <c r="B5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:2">
       <c r="B7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="2:2">
       <c r="B9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="2:2">
       <c r="B11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="2:2">
       <c r="B13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="2:2">
       <c r="B15" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="2:2">
       <c r="B17" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="2:2">
       <c r="B19" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="2:2">
       <c r="B21" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="2:2">
       <c r="B23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -4350,32 +4297,32 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -4403,24 +4350,24 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" ht="14.25"/>
     <row r="4" ht="14.25" spans="2:3">
       <c r="B4" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>188</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="2:3">
       <c r="B5" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>190</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -4446,31 +4393,31 @@
   <sheetData>
     <row r="2" ht="14.25" spans="2:2">
       <c r="B2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="2:3">
       <c r="B3" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="2:3">
       <c r="B4" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="2:3">
       <c r="B5" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -4496,37 +4443,37 @@
   <sheetData>
     <row r="2" ht="14.25" spans="2:2">
       <c r="B2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="2:3">
       <c r="B3" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>195</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="2:3">
       <c r="B4" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="3:3">
       <c r="C5" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" ht="14.25"/>
     <row r="7" ht="14.25" spans="2:3">
       <c r="B7" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
